--- a/Excels/Traverse.xlsx
+++ b/Excels/Traverse.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SANJEEV BASHYAL\Desktop\Survey Camp 2076\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA6C85E6-5ACA-4367-816A-0EE83ACB9921}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07C44CB9-BB95-49F3-AA3E-74C5759B66E0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11280" firstSheet="1" activeTab="1" xr2:uid="{1C92280B-B669-4456-B245-B98452BD5BC0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11280" firstSheet="2" activeTab="3" xr2:uid="{1C92280B-B669-4456-B245-B98452BD5BC0}"/>
   </bookViews>
   <sheets>
     <sheet name="HCR Distance Observation" sheetId="1" r:id="rId1"/>
@@ -33,6 +33,7 @@
     <definedName name="S2_">'Level Transfer'!$L$31:$L$49</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1431,6 +1432,30 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1443,39 +1468,6 @@
     <xf numFmtId="166" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1485,16 +1477,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="170" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1509,17 +1519,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="165" fontId="11" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1530,15 +1552,6 @@
     <xf numFmtId="165" fontId="11" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1547,6 +1560,15 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1566,31 +1588,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2488,2293 +2489,2552 @@
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="152" t="s">
+      <c r="A4" s="147" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="152" t="s">
+      <c r="B4" s="147" t="s">
         <v>18</v>
       </c>
       <c r="C4" s="95">
         <v>0</v>
       </c>
-      <c r="D4" s="151">
+      <c r="D4" s="148">
         <f t="shared" ref="D4" si="0">(C6-C4+C7-C5)/2</f>
         <v>8.3938078703703702</v>
       </c>
       <c r="E4" s="95">
         <v>3.75</v>
       </c>
-      <c r="F4" s="151">
+      <c r="F4" s="148">
         <f>(E6-E4+E7-E5)/2</f>
         <v>8.3938194444444463</v>
       </c>
-      <c r="G4" s="156">
+      <c r="G4" s="149">
         <f>(D4+F4)/2</f>
         <v>8.3938136574074083</v>
       </c>
-      <c r="H4" s="150">
+      <c r="H4" s="151">
         <v>105.98099999999999</v>
       </c>
-      <c r="I4" s="155">
+      <c r="I4" s="146">
         <f>AVERAGE(H4,H78)</f>
         <v>105.9735</v>
       </c>
-      <c r="J4" s="154">
+      <c r="J4" s="152">
         <f>I4/ABS(H4-H78)</f>
         <v>7064.8999999997322</v>
       </c>
-      <c r="K4" s="150">
+      <c r="K4" s="151">
         <v>3.67</v>
       </c>
-      <c r="L4" s="150">
+      <c r="L4" s="151">
         <f>AVERAGE(K4,-K78)</f>
         <v>3.5169999999999999</v>
       </c>
-      <c r="M4" s="146">
+      <c r="M4" s="154">
         <f>L4/ABS(K4+K78)</f>
         <v>11.49346405228758</v>
       </c>
-      <c r="N4" s="150">
+      <c r="N4" s="151">
         <v>1.4</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="152"/>
-      <c r="B5" s="152"/>
+      <c r="A5" s="147"/>
+      <c r="B5" s="147"/>
       <c r="C5" s="95">
         <v>7.5</v>
       </c>
-      <c r="D5" s="152"/>
+      <c r="D5" s="147"/>
       <c r="E5" s="95">
         <v>11.250023148148147</v>
       </c>
-      <c r="F5" s="152"/>
-      <c r="G5" s="157"/>
-      <c r="H5" s="150"/>
-      <c r="I5" s="155"/>
-      <c r="J5" s="154"/>
-      <c r="K5" s="150"/>
-      <c r="L5" s="150"/>
-      <c r="M5" s="148"/>
-      <c r="N5" s="150"/>
+      <c r="F5" s="147"/>
+      <c r="G5" s="150"/>
+      <c r="H5" s="151"/>
+      <c r="I5" s="146"/>
+      <c r="J5" s="152"/>
+      <c r="K5" s="151"/>
+      <c r="L5" s="151"/>
+      <c r="M5" s="156"/>
+      <c r="N5" s="151"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="152"/>
-      <c r="B6" s="152" t="s">
+      <c r="A6" s="147"/>
+      <c r="B6" s="147" t="s">
         <v>2</v>
       </c>
       <c r="C6" s="95">
         <v>8.3937847222222217</v>
       </c>
-      <c r="D6" s="152"/>
+      <c r="D6" s="147"/>
       <c r="E6" s="95">
         <v>12.143819444444444</v>
       </c>
-      <c r="F6" s="152"/>
-      <c r="G6" s="157"/>
-      <c r="H6" s="150">
+      <c r="F6" s="147"/>
+      <c r="G6" s="150"/>
+      <c r="H6" s="151">
         <v>113.554</v>
       </c>
-      <c r="I6" s="155">
+      <c r="I6" s="146">
         <f>(H6+H8)/2</f>
         <v>113.545</v>
       </c>
-      <c r="J6" s="154">
+      <c r="J6" s="152">
         <f>I6/ABS(H8-H6)</f>
         <v>6308.0555555553165</v>
       </c>
-      <c r="K6" s="150">
+      <c r="K6" s="151">
         <v>-3.5289999999999999</v>
       </c>
-      <c r="L6" s="150">
+      <c r="L6" s="151">
         <f>(-K6+K8)/2</f>
         <v>3.6375000000000002</v>
       </c>
-      <c r="M6" s="146">
+      <c r="M6" s="154">
         <f>ABS(L6/ABS(K8+K6))</f>
         <v>16.762672811059904</v>
       </c>
-      <c r="N6" s="150">
+      <c r="N6" s="151">
         <v>1.2849999999999999</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="152"/>
-      <c r="B7" s="152"/>
+      <c r="A7" s="147"/>
+      <c r="B7" s="147"/>
       <c r="C7" s="95">
         <v>15.893831018518519</v>
       </c>
-      <c r="D7" s="152"/>
+      <c r="D7" s="147"/>
       <c r="E7" s="95">
         <v>19.643842592592595</v>
       </c>
-      <c r="F7" s="152"/>
-      <c r="G7" s="157"/>
-      <c r="H7" s="150"/>
-      <c r="I7" s="155"/>
-      <c r="J7" s="154"/>
-      <c r="K7" s="150"/>
-      <c r="L7" s="150"/>
-      <c r="M7" s="147"/>
-      <c r="N7" s="150"/>
+      <c r="F7" s="147"/>
+      <c r="G7" s="150"/>
+      <c r="H7" s="151"/>
+      <c r="I7" s="146"/>
+      <c r="J7" s="152"/>
+      <c r="K7" s="151"/>
+      <c r="L7" s="151"/>
+      <c r="M7" s="155"/>
+      <c r="N7" s="151"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="152" t="s">
+      <c r="A8" s="147" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="152" t="s">
+      <c r="B8" s="147" t="s">
         <v>1</v>
       </c>
       <c r="C8" s="95">
         <v>0</v>
       </c>
-      <c r="D8" s="151">
+      <c r="D8" s="148">
         <f t="shared" ref="D8" si="1">(C10-C8+C11-C9)/2</f>
         <v>6.5883159722222242</v>
       </c>
       <c r="E8" s="95">
         <v>3.75</v>
       </c>
-      <c r="F8" s="151">
+      <c r="F8" s="148">
         <f t="shared" ref="F8" si="2">(E10-E8+E11-E9)/2</f>
         <v>6.5883680555555557</v>
       </c>
-      <c r="G8" s="156">
+      <c r="G8" s="149">
         <f t="shared" ref="G8" si="3">(D8+F8)/2</f>
         <v>6.58834201388889</v>
       </c>
-      <c r="H8" s="150">
+      <c r="H8" s="151">
         <v>113.536</v>
       </c>
-      <c r="I8" s="155"/>
-      <c r="J8" s="154"/>
-      <c r="K8" s="150">
+      <c r="I8" s="146"/>
+      <c r="J8" s="152"/>
+      <c r="K8" s="151">
         <v>3.746</v>
       </c>
-      <c r="L8" s="150"/>
-      <c r="M8" s="147"/>
-      <c r="N8" s="150">
+      <c r="L8" s="151"/>
+      <c r="M8" s="155"/>
+      <c r="N8" s="151">
         <v>1.4</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="152"/>
-      <c r="B9" s="152"/>
+      <c r="A9" s="147"/>
+      <c r="B9" s="147"/>
       <c r="C9" s="95">
         <v>7.5001388888888885</v>
       </c>
-      <c r="D9" s="152"/>
+      <c r="D9" s="147"/>
       <c r="E9" s="95">
         <v>11.250046296296297</v>
       </c>
-      <c r="F9" s="152"/>
-      <c r="G9" s="157"/>
-      <c r="H9" s="150"/>
-      <c r="I9" s="155"/>
-      <c r="J9" s="154"/>
-      <c r="K9" s="150"/>
-      <c r="L9" s="150"/>
-      <c r="M9" s="148"/>
-      <c r="N9" s="150"/>
+      <c r="F9" s="147"/>
+      <c r="G9" s="150"/>
+      <c r="H9" s="151"/>
+      <c r="I9" s="146"/>
+      <c r="J9" s="152"/>
+      <c r="K9" s="151"/>
+      <c r="L9" s="151"/>
+      <c r="M9" s="156"/>
+      <c r="N9" s="151"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="152"/>
-      <c r="B10" s="152" t="s">
+      <c r="A10" s="147"/>
+      <c r="B10" s="147" t="s">
         <v>3</v>
       </c>
       <c r="C10" s="95">
         <v>6.5884722222222223</v>
       </c>
-      <c r="D10" s="152"/>
+      <c r="D10" s="147"/>
       <c r="E10" s="95">
         <v>10.338402777777778</v>
       </c>
-      <c r="F10" s="152"/>
-      <c r="G10" s="157"/>
-      <c r="H10" s="150">
+      <c r="F10" s="147"/>
+      <c r="G10" s="150"/>
+      <c r="H10" s="151">
         <v>121.376</v>
       </c>
-      <c r="I10" s="155">
+      <c r="I10" s="146">
         <f t="shared" ref="I10" si="4">(H10+H12)/2</f>
         <v>121.381</v>
       </c>
-      <c r="J10" s="154">
+      <c r="J10" s="152">
         <f t="shared" ref="J10" si="5">I10/ABS(H12-H10)</f>
         <v>12138.10000001104</v>
       </c>
-      <c r="K10" s="150">
+      <c r="K10" s="151">
         <v>-4.9420000000000002</v>
       </c>
-      <c r="L10" s="150">
+      <c r="L10" s="151">
         <f>(-K10+K12)/2</f>
         <v>5.0455000000000005</v>
       </c>
-      <c r="M10" s="146">
+      <c r="M10" s="154">
         <f t="shared" ref="M10" si="6">ABS(L10/ABS(K12+K10))</f>
         <v>24.374396135265719</v>
       </c>
-      <c r="N10" s="150">
+      <c r="N10" s="151">
         <v>1.6</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="152"/>
-      <c r="B11" s="152"/>
+      <c r="A11" s="147"/>
+      <c r="B11" s="147"/>
       <c r="C11" s="95">
         <v>14.088298611111112</v>
       </c>
-      <c r="D11" s="152"/>
+      <c r="D11" s="147"/>
       <c r="E11" s="95">
         <v>17.838379629629632</v>
       </c>
-      <c r="F11" s="152"/>
-      <c r="G11" s="157"/>
-      <c r="H11" s="150"/>
-      <c r="I11" s="155"/>
-      <c r="J11" s="154"/>
-      <c r="K11" s="150"/>
-      <c r="L11" s="150"/>
-      <c r="M11" s="147"/>
-      <c r="N11" s="150"/>
+      <c r="F11" s="147"/>
+      <c r="G11" s="150"/>
+      <c r="H11" s="151"/>
+      <c r="I11" s="146"/>
+      <c r="J11" s="152"/>
+      <c r="K11" s="151"/>
+      <c r="L11" s="151"/>
+      <c r="M11" s="155"/>
+      <c r="N11" s="151"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="152" t="s">
+      <c r="A12" s="147" t="s">
         <v>3</v>
       </c>
-      <c r="B12" s="152" t="s">
+      <c r="B12" s="147" t="s">
         <v>2</v>
       </c>
       <c r="C12" s="95">
         <v>0</v>
       </c>
-      <c r="D12" s="151">
+      <c r="D12" s="148">
         <f t="shared" ref="D12" si="7">(C14-C12+C15-C13)/2</f>
         <v>5.7337326388888883</v>
       </c>
       <c r="E12" s="95">
         <v>3.75</v>
       </c>
-      <c r="F12" s="151">
+      <c r="F12" s="148">
         <f t="shared" ref="F12" si="8">(E14-E12+E15-E13)/2</f>
         <v>5.7336168981481492</v>
       </c>
-      <c r="G12" s="156">
+      <c r="G12" s="149">
         <f t="shared" ref="G12" si="9">(D12+F12)/2</f>
         <v>5.7336747685185188</v>
       </c>
-      <c r="H12" s="150">
+      <c r="H12" s="151">
         <v>121.386</v>
       </c>
-      <c r="I12" s="155"/>
-      <c r="J12" s="154"/>
-      <c r="K12" s="150">
+      <c r="I12" s="146"/>
+      <c r="J12" s="152"/>
+      <c r="K12" s="151">
         <v>5.149</v>
       </c>
-      <c r="L12" s="150"/>
-      <c r="M12" s="147"/>
-      <c r="N12" s="150">
+      <c r="L12" s="151"/>
+      <c r="M12" s="155"/>
+      <c r="N12" s="151">
         <v>1.4</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="152"/>
-      <c r="B13" s="152"/>
+      <c r="A13" s="147"/>
+      <c r="B13" s="147"/>
       <c r="C13" s="95">
         <v>7.5000347222222219</v>
       </c>
-      <c r="D13" s="152"/>
+      <c r="D13" s="147"/>
       <c r="E13" s="95">
         <v>7.5000115740740734</v>
       </c>
-      <c r="F13" s="152"/>
-      <c r="G13" s="157"/>
-      <c r="H13" s="150"/>
-      <c r="I13" s="155"/>
-      <c r="J13" s="154"/>
-      <c r="K13" s="150"/>
-      <c r="L13" s="150"/>
-      <c r="M13" s="148"/>
-      <c r="N13" s="150"/>
+      <c r="F13" s="147"/>
+      <c r="G13" s="150"/>
+      <c r="H13" s="151"/>
+      <c r="I13" s="146"/>
+      <c r="J13" s="152"/>
+      <c r="K13" s="151"/>
+      <c r="L13" s="151"/>
+      <c r="M13" s="156"/>
+      <c r="N13" s="151"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="152"/>
-      <c r="B14" s="152" t="s">
+      <c r="A14" s="147"/>
+      <c r="B14" s="147" t="s">
         <v>4</v>
       </c>
       <c r="C14" s="95">
         <v>5.733842592592592</v>
       </c>
-      <c r="D14" s="152"/>
+      <c r="D14" s="147"/>
       <c r="E14" s="95">
         <v>9.4835879629629627</v>
       </c>
-      <c r="F14" s="152"/>
-      <c r="G14" s="157"/>
-      <c r="H14" s="150">
+      <c r="F14" s="147"/>
+      <c r="G14" s="150"/>
+      <c r="H14" s="151">
         <v>78.108000000000004</v>
       </c>
-      <c r="I14" s="155">
+      <c r="I14" s="146">
         <f t="shared" ref="I14" si="10">(H14+H16)/2</f>
         <v>78.103499999999997</v>
       </c>
-      <c r="J14" s="154">
+      <c r="J14" s="152">
         <f t="shared" ref="J14" si="11">I14/ABS(H16-H14)</f>
         <v>8678.1666666663368</v>
       </c>
-      <c r="K14" s="150">
+      <c r="K14" s="151">
         <v>-7.7629999999999999</v>
       </c>
-      <c r="L14" s="150">
+      <c r="L14" s="151">
         <f t="shared" ref="L14" si="12">(-K14+K16)/2</f>
         <v>7.6574999999999998</v>
       </c>
-      <c r="M14" s="146">
+      <c r="M14" s="154">
         <f t="shared" ref="M14" si="13">ABS(L14/ABS(K16+K14))</f>
         <v>36.291469194312747</v>
       </c>
-      <c r="N14" s="150">
+      <c r="N14" s="151">
         <v>1.3</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="152"/>
-      <c r="B15" s="152"/>
+      <c r="A15" s="147"/>
+      <c r="B15" s="147"/>
       <c r="C15" s="95">
         <v>13.233657407407406</v>
       </c>
-      <c r="D15" s="152"/>
+      <c r="D15" s="147"/>
       <c r="E15" s="95">
         <v>13.233657407407406</v>
       </c>
-      <c r="F15" s="152"/>
-      <c r="G15" s="157"/>
-      <c r="H15" s="150"/>
-      <c r="I15" s="155"/>
-      <c r="J15" s="154"/>
-      <c r="K15" s="150"/>
-      <c r="L15" s="150"/>
-      <c r="M15" s="147"/>
-      <c r="N15" s="150"/>
+      <c r="F15" s="147"/>
+      <c r="G15" s="150"/>
+      <c r="H15" s="151"/>
+      <c r="I15" s="146"/>
+      <c r="J15" s="152"/>
+      <c r="K15" s="151"/>
+      <c r="L15" s="151"/>
+      <c r="M15" s="155"/>
+      <c r="N15" s="151"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="152" t="s">
+      <c r="A16" s="147" t="s">
         <v>4</v>
       </c>
-      <c r="B16" s="152" t="s">
+      <c r="B16" s="147" t="s">
         <v>3</v>
       </c>
       <c r="C16" s="95">
         <v>0</v>
       </c>
-      <c r="D16" s="151">
+      <c r="D16" s="148">
         <f t="shared" ref="D16" si="14">(C18-C16+C19-C17)/2</f>
         <v>6.2031944444444456</v>
       </c>
       <c r="E16" s="95">
         <v>3.75</v>
       </c>
-      <c r="F16" s="151">
+      <c r="F16" s="148">
         <f t="shared" ref="F16" si="15">(E18-E16+E19-E17)/2</f>
         <v>6.2032002314814818</v>
       </c>
-      <c r="G16" s="156">
+      <c r="G16" s="149">
         <f t="shared" ref="G16" si="16">(D16+F16)/2</f>
         <v>6.2031973379629637</v>
       </c>
-      <c r="H16" s="150">
+      <c r="H16" s="151">
         <v>78.099000000000004</v>
       </c>
-      <c r="I16" s="155"/>
-      <c r="J16" s="154"/>
-      <c r="K16" s="150">
+      <c r="I16" s="146"/>
+      <c r="J16" s="152"/>
+      <c r="K16" s="151">
         <v>7.5519999999999996</v>
       </c>
-      <c r="L16" s="150"/>
-      <c r="M16" s="147"/>
-      <c r="N16" s="150">
+      <c r="L16" s="151"/>
+      <c r="M16" s="155"/>
+      <c r="N16" s="151">
         <v>1.3</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="152"/>
-      <c r="B17" s="152"/>
+      <c r="A17" s="147"/>
+      <c r="B17" s="147"/>
       <c r="C17" s="95">
         <v>7.4999537037037038</v>
       </c>
-      <c r="D17" s="152"/>
+      <c r="D17" s="147"/>
       <c r="E17" s="95">
         <v>11.250046296296297</v>
       </c>
-      <c r="F17" s="152"/>
-      <c r="G17" s="157"/>
-      <c r="H17" s="150"/>
-      <c r="I17" s="155"/>
-      <c r="J17" s="154"/>
-      <c r="K17" s="150"/>
-      <c r="L17" s="150"/>
-      <c r="M17" s="148"/>
-      <c r="N17" s="150"/>
+      <c r="F17" s="147"/>
+      <c r="G17" s="150"/>
+      <c r="H17" s="151"/>
+      <c r="I17" s="146"/>
+      <c r="J17" s="152"/>
+      <c r="K17" s="151"/>
+      <c r="L17" s="151"/>
+      <c r="M17" s="156"/>
+      <c r="N17" s="151"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="152"/>
-      <c r="B18" s="152" t="s">
+      <c r="A18" s="147"/>
+      <c r="B18" s="147" t="s">
         <v>5</v>
       </c>
       <c r="C18" s="95">
         <v>6.2032407407407399</v>
       </c>
-      <c r="D18" s="152"/>
+      <c r="D18" s="147"/>
       <c r="E18" s="95">
         <v>9.9531828703703713</v>
       </c>
-      <c r="F18" s="152"/>
-      <c r="G18" s="157"/>
-      <c r="H18" s="150">
+      <c r="F18" s="147"/>
+      <c r="G18" s="150"/>
+      <c r="H18" s="151">
         <v>61.79</v>
       </c>
-      <c r="I18" s="155">
+      <c r="I18" s="146">
         <f t="shared" ref="I18" si="17">(H18+H20)/2</f>
         <v>61.789500000000004</v>
       </c>
-      <c r="J18" s="154">
+      <c r="J18" s="152">
         <f t="shared" ref="J18" si="18">I18/ABS(H20-H18)</f>
         <v>61789.500000144006</v>
       </c>
-      <c r="K18" s="150">
+      <c r="K18" s="151">
         <v>-3.87</v>
       </c>
-      <c r="L18" s="150">
+      <c r="L18" s="151">
         <f t="shared" ref="L18" si="19">(-K18+K20)/2</f>
         <v>3.81</v>
       </c>
-      <c r="M18" s="146">
+      <c r="M18" s="154">
         <f t="shared" ref="M18" si="20">ABS(L18/ABS(K20+K18))</f>
         <v>31.749999999999972</v>
       </c>
-      <c r="N18" s="150">
+      <c r="N18" s="151">
         <v>1.3</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="152"/>
-      <c r="B19" s="152"/>
+      <c r="A19" s="147"/>
+      <c r="B19" s="147"/>
       <c r="C19" s="95">
         <v>13.703101851851853</v>
       </c>
-      <c r="D19" s="152"/>
+      <c r="D19" s="147"/>
       <c r="E19" s="95">
         <v>17.453263888888888</v>
       </c>
-      <c r="F19" s="152"/>
-      <c r="G19" s="157"/>
-      <c r="H19" s="150"/>
-      <c r="I19" s="155"/>
-      <c r="J19" s="154"/>
-      <c r="K19" s="150"/>
-      <c r="L19" s="150"/>
-      <c r="M19" s="147"/>
-      <c r="N19" s="150"/>
+      <c r="F19" s="147"/>
+      <c r="G19" s="150"/>
+      <c r="H19" s="151"/>
+      <c r="I19" s="146"/>
+      <c r="J19" s="152"/>
+      <c r="K19" s="151"/>
+      <c r="L19" s="151"/>
+      <c r="M19" s="155"/>
+      <c r="N19" s="151"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="152" t="s">
+      <c r="A20" s="147" t="s">
         <v>5</v>
       </c>
-      <c r="B20" s="152" t="s">
+      <c r="B20" s="147" t="s">
         <v>4</v>
       </c>
       <c r="C20" s="95">
         <v>0</v>
       </c>
-      <c r="D20" s="151">
+      <c r="D20" s="148">
         <f t="shared" ref="D20" si="21">(C22-C20+C23-C21)/2</f>
         <v>6.7329282407407423</v>
       </c>
       <c r="E20" s="95">
         <v>3.75</v>
       </c>
-      <c r="F20" s="151">
+      <c r="F20" s="148">
         <f t="shared" ref="F20" si="22">(E22-E20+E23-E21)/2</f>
         <v>6.732945601851851</v>
       </c>
-      <c r="G20" s="156">
+      <c r="G20" s="149">
         <f t="shared" ref="G20" si="23">(D20+F20)/2</f>
         <v>6.7329369212962966</v>
       </c>
-      <c r="H20" s="150">
+      <c r="H20" s="151">
         <v>61.789000000000001</v>
       </c>
-      <c r="I20" s="155"/>
-      <c r="J20" s="154"/>
-      <c r="K20" s="150">
+      <c r="I20" s="146"/>
+      <c r="J20" s="152"/>
+      <c r="K20" s="151">
         <v>3.75</v>
       </c>
-      <c r="L20" s="150"/>
-      <c r="M20" s="147"/>
-      <c r="N20" s="150">
+      <c r="L20" s="151"/>
+      <c r="M20" s="155"/>
+      <c r="N20" s="151">
         <v>1.35</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21" s="152"/>
-      <c r="B21" s="152"/>
+      <c r="A21" s="147"/>
+      <c r="B21" s="147"/>
       <c r="C21" s="95">
         <v>7.4999537037037038</v>
       </c>
-      <c r="D21" s="152"/>
+      <c r="D21" s="147"/>
       <c r="E21" s="95">
         <v>11.250046296296297</v>
       </c>
-      <c r="F21" s="152"/>
-      <c r="G21" s="157"/>
-      <c r="H21" s="150"/>
-      <c r="I21" s="155"/>
-      <c r="J21" s="154"/>
-      <c r="K21" s="150"/>
-      <c r="L21" s="150"/>
-      <c r="M21" s="148"/>
-      <c r="N21" s="150"/>
+      <c r="F21" s="147"/>
+      <c r="G21" s="150"/>
+      <c r="H21" s="151"/>
+      <c r="I21" s="146"/>
+      <c r="J21" s="152"/>
+      <c r="K21" s="151"/>
+      <c r="L21" s="151"/>
+      <c r="M21" s="156"/>
+      <c r="N21" s="151"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22" s="152"/>
-      <c r="B22" s="152" t="s">
+      <c r="A22" s="147"/>
+      <c r="B22" s="147" t="s">
         <v>6</v>
       </c>
       <c r="C22" s="95">
         <v>6.7329398148148156</v>
       </c>
-      <c r="D22" s="152"/>
+      <c r="D22" s="147"/>
       <c r="E22" s="95">
         <v>10.48292824074074</v>
       </c>
-      <c r="F22" s="152"/>
-      <c r="G22" s="157"/>
-      <c r="H22" s="150">
+      <c r="F22" s="147"/>
+      <c r="G22" s="150"/>
+      <c r="H22" s="151">
         <v>102.34</v>
       </c>
-      <c r="I22" s="155">
+      <c r="I22" s="146">
         <f t="shared" ref="I22" si="24">(H22+H24)/2</f>
         <v>102.3415</v>
       </c>
-      <c r="J22" s="154">
+      <c r="J22" s="152">
         <f t="shared" ref="J22" si="25">I22/ABS(H24-H22)</f>
         <v>34113.833333332041</v>
       </c>
-      <c r="K22" s="150">
+      <c r="K22" s="151">
         <v>3.6360000000000001</v>
       </c>
-      <c r="L22" s="150">
+      <c r="L22" s="151">
         <f t="shared" ref="L22" si="26">(-K22+K24)/2</f>
         <v>-3.51</v>
       </c>
-      <c r="M22" s="146">
+      <c r="M22" s="154">
         <f t="shared" ref="M22" si="27">ABS(L22/ABS(K24+K22))</f>
         <v>13.928571428571415</v>
       </c>
-      <c r="N22" s="150">
+      <c r="N22" s="151">
         <v>1.3049999999999999</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A23" s="152"/>
-      <c r="B23" s="152"/>
+      <c r="A23" s="147"/>
+      <c r="B23" s="147"/>
       <c r="C23" s="95">
         <v>14.232870370370371</v>
       </c>
-      <c r="D23" s="152"/>
+      <c r="D23" s="147"/>
       <c r="E23" s="95">
         <v>17.983009259259259</v>
       </c>
-      <c r="F23" s="152"/>
-      <c r="G23" s="157"/>
-      <c r="H23" s="150"/>
-      <c r="I23" s="155"/>
-      <c r="J23" s="154"/>
-      <c r="K23" s="150"/>
-      <c r="L23" s="150"/>
-      <c r="M23" s="147"/>
-      <c r="N23" s="150"/>
+      <c r="F23" s="147"/>
+      <c r="G23" s="150"/>
+      <c r="H23" s="151"/>
+      <c r="I23" s="146"/>
+      <c r="J23" s="152"/>
+      <c r="K23" s="151"/>
+      <c r="L23" s="151"/>
+      <c r="M23" s="155"/>
+      <c r="N23" s="151"/>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24" s="152" t="s">
+      <c r="A24" s="147" t="s">
         <v>6</v>
       </c>
-      <c r="B24" s="152" t="s">
+      <c r="B24" s="147" t="s">
         <v>5</v>
       </c>
       <c r="C24" s="95">
         <v>0</v>
       </c>
-      <c r="D24" s="151">
+      <c r="D24" s="148">
         <f t="shared" ref="D24" si="28">(C26-C24+C27-C25)/2</f>
         <v>10.772997685185187</v>
       </c>
       <c r="E24" s="95">
         <v>3.75</v>
       </c>
-      <c r="F24" s="151">
+      <c r="F24" s="148">
         <f t="shared" ref="F24" si="29">(E26-E24+E27-E25)/2</f>
         <v>10.773032407407406</v>
       </c>
-      <c r="G24" s="156">
+      <c r="G24" s="149">
         <f t="shared" ref="G24" si="30">(D24+F24)/2</f>
         <v>10.773015046296297</v>
       </c>
-      <c r="H24" s="150">
+      <c r="H24" s="151">
         <v>102.343</v>
       </c>
-      <c r="I24" s="155"/>
-      <c r="J24" s="154"/>
-      <c r="K24" s="150">
+      <c r="I24" s="146"/>
+      <c r="J24" s="152"/>
+      <c r="K24" s="151">
         <v>-3.3839999999999999</v>
       </c>
-      <c r="L24" s="150"/>
-      <c r="M24" s="147"/>
-      <c r="N24" s="150">
+      <c r="L24" s="151"/>
+      <c r="M24" s="155"/>
+      <c r="N24" s="151">
         <v>1.33</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25" s="152"/>
-      <c r="B25" s="152"/>
+      <c r="A25" s="147"/>
+      <c r="B25" s="147"/>
       <c r="C25" s="95">
         <v>7.5001388888888885</v>
       </c>
-      <c r="D25" s="152"/>
+      <c r="D25" s="147"/>
       <c r="E25" s="95">
         <v>11.250092592592592</v>
       </c>
-      <c r="F25" s="152"/>
-      <c r="G25" s="157"/>
-      <c r="H25" s="150"/>
-      <c r="I25" s="155"/>
-      <c r="J25" s="154"/>
-      <c r="K25" s="150"/>
-      <c r="L25" s="150"/>
-      <c r="M25" s="148"/>
-      <c r="N25" s="150"/>
+      <c r="F25" s="147"/>
+      <c r="G25" s="150"/>
+      <c r="H25" s="151"/>
+      <c r="I25" s="146"/>
+      <c r="J25" s="152"/>
+      <c r="K25" s="151"/>
+      <c r="L25" s="151"/>
+      <c r="M25" s="156"/>
+      <c r="N25" s="151"/>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A26" s="152"/>
-      <c r="B26" s="152" t="s">
+      <c r="A26" s="147"/>
+      <c r="B26" s="147" t="s">
         <v>7</v>
       </c>
       <c r="C26" s="95">
         <v>10.773159722222223</v>
       </c>
-      <c r="D26" s="152"/>
+      <c r="D26" s="147"/>
       <c r="E26" s="95">
         <v>14.523055555555556</v>
       </c>
-      <c r="F26" s="152"/>
-      <c r="G26" s="157"/>
-      <c r="H26" s="150">
+      <c r="F26" s="147"/>
+      <c r="G26" s="150"/>
+      <c r="H26" s="151">
         <v>88.995999999999995</v>
       </c>
-      <c r="I26" s="155">
+      <c r="I26" s="146">
         <f t="shared" ref="I26" si="31">(H26+H28)/2</f>
         <v>88.996499999999997</v>
       </c>
-      <c r="J26" s="154">
+      <c r="J26" s="152">
         <f t="shared" ref="J26" si="32">I26/ABS(H28-H26)</f>
         <v>88996.499999575055</v>
       </c>
-      <c r="K26" s="150">
+      <c r="K26" s="151">
         <v>1.8260000000000001</v>
       </c>
-      <c r="L26" s="150">
+      <c r="L26" s="151">
         <f t="shared" ref="L26" si="33">(-K26+K28)/2</f>
         <v>-1.8315000000000001</v>
       </c>
-      <c r="M26" s="146">
+      <c r="M26" s="154">
         <f t="shared" ref="M26" si="34">ABS(L26/ABS(K28+K26))</f>
         <v>166.50000000000153</v>
       </c>
-      <c r="N26" s="150">
+      <c r="N26" s="151">
         <v>1.3</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A27" s="152"/>
-      <c r="B27" s="152"/>
+      <c r="A27" s="147"/>
+      <c r="B27" s="147"/>
       <c r="C27" s="95">
         <v>18.272974537037037</v>
       </c>
-      <c r="D27" s="152"/>
+      <c r="D27" s="147"/>
       <c r="E27" s="95">
         <v>22.023101851851852</v>
       </c>
-      <c r="F27" s="152"/>
-      <c r="G27" s="157"/>
-      <c r="H27" s="150"/>
-      <c r="I27" s="155"/>
-      <c r="J27" s="154"/>
-      <c r="K27" s="150"/>
-      <c r="L27" s="150"/>
-      <c r="M27" s="147"/>
-      <c r="N27" s="150"/>
+      <c r="F27" s="147"/>
+      <c r="G27" s="150"/>
+      <c r="H27" s="151"/>
+      <c r="I27" s="146"/>
+      <c r="J27" s="152"/>
+      <c r="K27" s="151"/>
+      <c r="L27" s="151"/>
+      <c r="M27" s="155"/>
+      <c r="N27" s="151"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A28" s="152" t="s">
+      <c r="A28" s="147" t="s">
         <v>7</v>
       </c>
-      <c r="B28" s="152" t="s">
+      <c r="B28" s="147" t="s">
         <v>6</v>
       </c>
       <c r="C28" s="95">
         <v>0</v>
       </c>
-      <c r="D28" s="151">
+      <c r="D28" s="148">
         <f t="shared" ref="D28" si="35">(C30-C28+C31-C29)/2</f>
         <v>5.9927488425925937</v>
       </c>
       <c r="E28" s="95">
         <v>3.75</v>
       </c>
-      <c r="F28" s="151">
+      <c r="F28" s="148">
         <f t="shared" ref="F28" si="36">(E30-E28+E31-E29)/2</f>
         <v>5.9927199074074062</v>
       </c>
-      <c r="G28" s="156">
+      <c r="G28" s="149">
         <f t="shared" ref="G28" si="37">(D28+F28)/2</f>
         <v>5.9927343749999995</v>
       </c>
-      <c r="H28" s="150">
+      <c r="H28" s="151">
         <v>88.997</v>
       </c>
-      <c r="I28" s="155"/>
-      <c r="J28" s="154"/>
-      <c r="K28" s="150">
+      <c r="I28" s="146"/>
+      <c r="J28" s="152"/>
+      <c r="K28" s="151">
         <v>-1.837</v>
       </c>
-      <c r="L28" s="150"/>
-      <c r="M28" s="147"/>
-      <c r="N28" s="150">
+      <c r="L28" s="151"/>
+      <c r="M28" s="155"/>
+      <c r="N28" s="151">
         <v>1.4</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A29" s="152"/>
-      <c r="B29" s="152"/>
+      <c r="A29" s="147"/>
+      <c r="B29" s="147"/>
       <c r="C29" s="95">
         <v>7.4999305555555553</v>
       </c>
-      <c r="D29" s="152"/>
+      <c r="D29" s="147"/>
       <c r="E29" s="95">
         <v>11.249976851851853</v>
       </c>
-      <c r="F29" s="152"/>
-      <c r="G29" s="157"/>
-      <c r="H29" s="150"/>
-      <c r="I29" s="155"/>
-      <c r="J29" s="154"/>
-      <c r="K29" s="150"/>
-      <c r="L29" s="150"/>
-      <c r="M29" s="148"/>
-      <c r="N29" s="150"/>
+      <c r="F29" s="147"/>
+      <c r="G29" s="150"/>
+      <c r="H29" s="151"/>
+      <c r="I29" s="146"/>
+      <c r="J29" s="152"/>
+      <c r="K29" s="151"/>
+      <c r="L29" s="151"/>
+      <c r="M29" s="156"/>
+      <c r="N29" s="151"/>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A30" s="152"/>
-      <c r="B30" s="152" t="s">
+      <c r="A30" s="147"/>
+      <c r="B30" s="147" t="s">
         <v>8</v>
       </c>
       <c r="C30" s="95">
         <v>5.992719907407408</v>
       </c>
-      <c r="D30" s="152"/>
+      <c r="D30" s="147"/>
       <c r="E30" s="95">
         <v>9.7427314814814814</v>
       </c>
-      <c r="F30" s="152"/>
-      <c r="G30" s="157"/>
-      <c r="H30" s="150">
+      <c r="F30" s="147"/>
+      <c r="G30" s="150"/>
+      <c r="H30" s="151">
         <v>64.725999999999999</v>
       </c>
-      <c r="I30" s="155">
+      <c r="I30" s="146">
         <f t="shared" ref="I30" si="38">(H30+H32)/2</f>
         <v>64.722000000000008</v>
       </c>
-      <c r="J30" s="154">
+      <c r="J30" s="152">
         <f t="shared" ref="J30" si="39">I30/ABS(H32-H30)</f>
         <v>8090.2500000044847</v>
       </c>
-      <c r="K30" s="150">
+      <c r="K30" s="151">
         <v>2.16</v>
       </c>
-      <c r="L30" s="150">
+      <c r="L30" s="151">
         <f t="shared" ref="L30" si="40">(-K30+K32)/2</f>
         <v>-1.661</v>
       </c>
-      <c r="M30" s="146">
+      <c r="M30" s="154">
         <f t="shared" ref="M30" si="41">ABS(L30/ABS(K32+K30))</f>
         <v>1.664328657314629</v>
       </c>
-      <c r="N30" s="150">
+      <c r="N30" s="151">
         <v>1.53</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A31" s="152"/>
-      <c r="B31" s="152"/>
+      <c r="A31" s="147"/>
+      <c r="B31" s="147"/>
       <c r="C31" s="95">
         <v>13.492708333333333</v>
       </c>
-      <c r="D31" s="152"/>
+      <c r="D31" s="147"/>
       <c r="E31" s="95">
         <v>17.242685185185184</v>
       </c>
-      <c r="F31" s="152"/>
-      <c r="G31" s="157"/>
-      <c r="H31" s="150"/>
-      <c r="I31" s="155"/>
-      <c r="J31" s="154"/>
-      <c r="K31" s="150"/>
-      <c r="L31" s="150"/>
-      <c r="M31" s="147"/>
-      <c r="N31" s="150"/>
+      <c r="F31" s="147"/>
+      <c r="G31" s="150"/>
+      <c r="H31" s="151"/>
+      <c r="I31" s="146"/>
+      <c r="J31" s="152"/>
+      <c r="K31" s="151"/>
+      <c r="L31" s="151"/>
+      <c r="M31" s="155"/>
+      <c r="N31" s="151"/>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A32" s="152" t="s">
+      <c r="A32" s="147" t="s">
         <v>8</v>
       </c>
-      <c r="B32" s="152" t="s">
+      <c r="B32" s="147" t="s">
         <v>7</v>
       </c>
       <c r="C32" s="95">
         <v>0</v>
       </c>
-      <c r="D32" s="151">
+      <c r="D32" s="148">
         <f t="shared" ref="D32" si="42">(C34-C32+C35-C33)/2</f>
         <v>5.3045543981481487</v>
       </c>
       <c r="E32" s="95">
         <v>3.75</v>
       </c>
-      <c r="F32" s="151">
+      <c r="F32" s="148">
         <f t="shared" ref="F32" si="43">(E34-E32+E35-E33)/2</f>
         <v>5.3045370370370355</v>
       </c>
-      <c r="G32" s="156">
+      <c r="G32" s="149">
         <f t="shared" ref="G32" si="44">(D32+F32)/2</f>
         <v>5.3045457175925925</v>
       </c>
-      <c r="H32" s="150">
+      <c r="H32" s="151">
         <v>64.718000000000004</v>
       </c>
-      <c r="I32" s="155"/>
-      <c r="J32" s="154"/>
-      <c r="K32" s="150">
+      <c r="I32" s="146"/>
+      <c r="J32" s="152"/>
+      <c r="K32" s="151">
         <v>-1.1619999999999999</v>
       </c>
-      <c r="L32" s="150"/>
-      <c r="M32" s="147"/>
-      <c r="N32" s="150">
+      <c r="L32" s="151"/>
+      <c r="M32" s="155"/>
+      <c r="N32" s="151">
         <v>2.15</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A33" s="152"/>
-      <c r="B33" s="152"/>
+      <c r="A33" s="147"/>
+      <c r="B33" s="147"/>
       <c r="C33" s="95">
         <v>7.5001388888888885</v>
       </c>
-      <c r="D33" s="152"/>
+      <c r="D33" s="147"/>
       <c r="E33" s="95">
         <v>11.250011574074074</v>
       </c>
-      <c r="F33" s="152"/>
-      <c r="G33" s="157"/>
-      <c r="H33" s="150"/>
-      <c r="I33" s="155"/>
-      <c r="J33" s="154"/>
-      <c r="K33" s="150"/>
-      <c r="L33" s="150"/>
-      <c r="M33" s="148"/>
-      <c r="N33" s="150"/>
+      <c r="F33" s="147"/>
+      <c r="G33" s="150"/>
+      <c r="H33" s="151"/>
+      <c r="I33" s="146"/>
+      <c r="J33" s="152"/>
+      <c r="K33" s="151"/>
+      <c r="L33" s="151"/>
+      <c r="M33" s="156"/>
+      <c r="N33" s="151"/>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A34" s="152"/>
-      <c r="B34" s="152" t="s">
+      <c r="A34" s="147"/>
+      <c r="B34" s="147" t="s">
         <v>9</v>
       </c>
       <c r="C34" s="95">
         <v>5.3047106481481476</v>
       </c>
-      <c r="D34" s="152"/>
+      <c r="D34" s="147"/>
       <c r="E34" s="95">
         <v>9.0545717592592592</v>
       </c>
-      <c r="F34" s="152"/>
-      <c r="G34" s="157"/>
-      <c r="H34" s="150">
+      <c r="F34" s="147"/>
+      <c r="G34" s="150"/>
+      <c r="H34" s="151">
         <v>69.39</v>
       </c>
-      <c r="I34" s="155">
+      <c r="I34" s="146">
         <f t="shared" ref="I34" si="45">(H34+H36)/2</f>
         <v>69.385999999999996</v>
       </c>
-      <c r="J34" s="154">
+      <c r="J34" s="152">
         <f t="shared" ref="J34" si="46">I34/ABS(H36-H34)</f>
         <v>8673.2500000048058</v>
       </c>
-      <c r="K34" s="150">
+      <c r="K34" s="151">
         <v>-1.853</v>
       </c>
-      <c r="L34" s="150">
+      <c r="L34" s="151">
         <f t="shared" ref="L34" si="47">(-K34+K36)/2</f>
         <v>1.9274999999999998</v>
       </c>
-      <c r="M34" s="146">
+      <c r="M34" s="154">
         <f t="shared" ref="M34" si="48">ABS(L34/ABS(K36+K34))</f>
         <v>12.936241610738271</v>
       </c>
-      <c r="N34" s="150">
+      <c r="N34" s="151">
         <v>1.35</v>
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A35" s="152"/>
-      <c r="B35" s="152"/>
+      <c r="A35" s="147"/>
+      <c r="B35" s="147"/>
       <c r="C35" s="95">
         <v>12.804537037037036</v>
       </c>
-      <c r="D35" s="152"/>
+      <c r="D35" s="147"/>
       <c r="E35" s="95">
         <v>16.554513888888888</v>
       </c>
-      <c r="F35" s="152"/>
-      <c r="G35" s="157"/>
-      <c r="H35" s="150"/>
-      <c r="I35" s="155"/>
-      <c r="J35" s="154"/>
-      <c r="K35" s="150"/>
-      <c r="L35" s="150"/>
-      <c r="M35" s="147"/>
-      <c r="N35" s="150"/>
+      <c r="F35" s="147"/>
+      <c r="G35" s="150"/>
+      <c r="H35" s="151"/>
+      <c r="I35" s="146"/>
+      <c r="J35" s="152"/>
+      <c r="K35" s="151"/>
+      <c r="L35" s="151"/>
+      <c r="M35" s="155"/>
+      <c r="N35" s="151"/>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A36" s="152" t="s">
+      <c r="A36" s="147" t="s">
         <v>9</v>
       </c>
-      <c r="B36" s="152" t="s">
+      <c r="B36" s="147" t="s">
         <v>8</v>
       </c>
       <c r="C36" s="95">
         <v>0</v>
       </c>
-      <c r="D36" s="151">
+      <c r="D36" s="148">
         <f t="shared" ref="D36" si="49">(C38-C36+C39-C37)/2</f>
         <v>5.8596527777777769</v>
       </c>
       <c r="E36" s="95">
         <v>3.75</v>
       </c>
-      <c r="F36" s="151">
+      <c r="F36" s="148">
         <f t="shared" ref="F36" si="50">(E38-E36+E39-E37)/2</f>
         <v>5.859652777777776</v>
       </c>
-      <c r="G36" s="156">
+      <c r="G36" s="149">
         <f t="shared" ref="G36" si="51">(D36+F36)/2</f>
         <v>5.8596527777777769</v>
       </c>
-      <c r="H36" s="150">
+      <c r="H36" s="151">
         <v>69.382000000000005</v>
       </c>
-      <c r="I36" s="155"/>
-      <c r="J36" s="154"/>
-      <c r="K36" s="150">
+      <c r="I36" s="146"/>
+      <c r="J36" s="152"/>
+      <c r="K36" s="151">
         <v>2.0019999999999998</v>
       </c>
-      <c r="L36" s="150"/>
-      <c r="M36" s="147"/>
-      <c r="N36" s="150">
+      <c r="L36" s="151"/>
+      <c r="M36" s="155"/>
+      <c r="N36" s="151">
         <v>1.31</v>
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A37" s="152"/>
-      <c r="B37" s="152"/>
+      <c r="A37" s="147"/>
+      <c r="B37" s="147"/>
       <c r="C37" s="95">
         <v>7.5</v>
       </c>
-      <c r="D37" s="152"/>
+      <c r="D37" s="147"/>
       <c r="E37" s="95">
         <v>11.25008101851852</v>
       </c>
-      <c r="F37" s="152"/>
-      <c r="G37" s="157"/>
-      <c r="H37" s="150"/>
-      <c r="I37" s="155"/>
-      <c r="J37" s="154"/>
-      <c r="K37" s="150"/>
-      <c r="L37" s="150"/>
-      <c r="M37" s="148"/>
-      <c r="N37" s="150"/>
+      <c r="F37" s="147"/>
+      <c r="G37" s="150"/>
+      <c r="H37" s="151"/>
+      <c r="I37" s="146"/>
+      <c r="J37" s="152"/>
+      <c r="K37" s="151"/>
+      <c r="L37" s="151"/>
+      <c r="M37" s="156"/>
+      <c r="N37" s="151"/>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A38" s="152"/>
-      <c r="B38" s="152" t="s">
+      <c r="A38" s="147"/>
+      <c r="B38" s="147" t="s">
         <v>10</v>
       </c>
       <c r="C38" s="95">
         <v>5.8597222222222216</v>
       </c>
-      <c r="D38" s="152"/>
+      <c r="D38" s="147"/>
       <c r="E38" s="95">
         <v>9.6096759259259255</v>
       </c>
-      <c r="F38" s="152"/>
-      <c r="G38" s="157"/>
-      <c r="H38" s="150">
+      <c r="F38" s="147"/>
+      <c r="G38" s="150"/>
+      <c r="H38" s="151">
         <v>96.554000000000002</v>
       </c>
-      <c r="I38" s="155">
+      <c r="I38" s="146">
         <f t="shared" ref="I38" si="52">(H38+H40)/2</f>
         <v>96.5565</v>
       </c>
-      <c r="J38" s="154">
+      <c r="J38" s="152">
         <f t="shared" ref="J38" si="53">I38/ABS(H40-H38)</f>
         <v>19311.300000017563</v>
       </c>
-      <c r="K38" s="150">
+      <c r="K38" s="151">
         <v>10.016999999999999</v>
       </c>
-      <c r="L38" s="150">
+      <c r="L38" s="151">
         <f t="shared" ref="L38" si="54">(-K38+K40)/2</f>
         <v>-9.2074999999999996</v>
       </c>
-      <c r="M38" s="146">
+      <c r="M38" s="154">
         <f t="shared" ref="M38" si="55">ABS(L38/ABS(K40+K38))</f>
         <v>5.6871525633106863</v>
       </c>
-      <c r="N38" s="150">
+      <c r="N38" s="151">
         <v>2.1</v>
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A39" s="152"/>
-      <c r="B39" s="152"/>
+      <c r="A39" s="147"/>
+      <c r="B39" s="147"/>
       <c r="C39" s="95">
         <v>13.359583333333333</v>
       </c>
-      <c r="D39" s="152"/>
+      <c r="D39" s="147"/>
       <c r="E39" s="95">
         <v>17.109710648148148</v>
       </c>
-      <c r="F39" s="152"/>
-      <c r="G39" s="157"/>
-      <c r="H39" s="150"/>
-      <c r="I39" s="155"/>
-      <c r="J39" s="154"/>
-      <c r="K39" s="150"/>
-      <c r="L39" s="150"/>
-      <c r="M39" s="147"/>
-      <c r="N39" s="150"/>
+      <c r="F39" s="147"/>
+      <c r="G39" s="150"/>
+      <c r="H39" s="151"/>
+      <c r="I39" s="146"/>
+      <c r="J39" s="152"/>
+      <c r="K39" s="151"/>
+      <c r="L39" s="151"/>
+      <c r="M39" s="155"/>
+      <c r="N39" s="151"/>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A40" s="152" t="s">
+      <c r="A40" s="147" t="s">
         <v>10</v>
       </c>
-      <c r="B40" s="152" t="s">
+      <c r="B40" s="147" t="s">
         <v>9</v>
       </c>
       <c r="C40" s="95">
         <v>0</v>
       </c>
-      <c r="D40" s="151">
+      <c r="D40" s="148">
         <f t="shared" ref="D40" si="56">(C42-C40+C43-C41)/2</f>
         <v>7.2605208333333344</v>
       </c>
       <c r="E40" s="95">
         <v>3.75</v>
       </c>
-      <c r="F40" s="151">
+      <c r="F40" s="148">
         <f t="shared" ref="F40" si="57">(E42-E40+E43-E41)/2</f>
         <v>7.2605439814814803</v>
       </c>
-      <c r="G40" s="156">
+      <c r="G40" s="149">
         <f t="shared" ref="G40" si="58">(D40+F40)/2</f>
         <v>7.2605324074074069</v>
       </c>
-      <c r="H40" s="150">
+      <c r="H40" s="151">
         <v>96.558999999999997</v>
       </c>
-      <c r="I40" s="155"/>
-      <c r="J40" s="154"/>
-      <c r="K40" s="150">
+      <c r="I40" s="146"/>
+      <c r="J40" s="152"/>
+      <c r="K40" s="151">
         <v>-8.3979999999999997</v>
       </c>
-      <c r="L40" s="150"/>
-      <c r="M40" s="147"/>
-      <c r="N40" s="150">
+      <c r="L40" s="151"/>
+      <c r="M40" s="155"/>
+      <c r="N40" s="151">
         <v>2.15</v>
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A41" s="152"/>
-      <c r="B41" s="152"/>
+      <c r="A41" s="147"/>
+      <c r="B41" s="147"/>
       <c r="C41" s="95">
         <v>7.500162037037037</v>
       </c>
-      <c r="D41" s="152"/>
+      <c r="D41" s="147"/>
       <c r="E41" s="95">
         <v>11.249976851851853</v>
       </c>
-      <c r="F41" s="152"/>
-      <c r="G41" s="157"/>
-      <c r="H41" s="150"/>
-      <c r="I41" s="155"/>
-      <c r="J41" s="154"/>
-      <c r="K41" s="150"/>
-      <c r="L41" s="150"/>
-      <c r="M41" s="148"/>
-      <c r="N41" s="150"/>
+      <c r="F41" s="147"/>
+      <c r="G41" s="150"/>
+      <c r="H41" s="151"/>
+      <c r="I41" s="146"/>
+      <c r="J41" s="152"/>
+      <c r="K41" s="151"/>
+      <c r="L41" s="151"/>
+      <c r="M41" s="156"/>
+      <c r="N41" s="151"/>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A42" s="152"/>
-      <c r="B42" s="152" t="s">
+      <c r="A42" s="147"/>
+      <c r="B42" s="147" t="s">
         <v>11</v>
       </c>
       <c r="C42" s="95">
         <v>7.2605439814814821</v>
       </c>
-      <c r="D42" s="152"/>
+      <c r="D42" s="147"/>
       <c r="E42" s="95">
         <v>11.010509259259258</v>
       </c>
-      <c r="F42" s="152"/>
-      <c r="G42" s="157"/>
-      <c r="H42" s="150">
+      <c r="F42" s="147"/>
+      <c r="G42" s="150"/>
+      <c r="H42" s="151">
         <v>71.870999999999995</v>
       </c>
-      <c r="I42" s="155">
+      <c r="I42" s="146">
         <f t="shared" ref="I42" si="59">(H42+H44)/2</f>
         <v>71.872</v>
       </c>
-      <c r="J42" s="154">
+      <c r="J42" s="152">
         <f t="shared" ref="J42" si="60">I42/ABS(H44-H42)</f>
         <v>35935.999999828411</v>
       </c>
-      <c r="K42" s="150">
+      <c r="K42" s="151">
         <v>0.81200000000000006</v>
       </c>
-      <c r="L42" s="150">
+      <c r="L42" s="151">
         <f t="shared" ref="L42" si="61">(-K42+K44)/2</f>
         <v>-0.76300000000000001</v>
       </c>
-      <c r="M42" s="146">
+      <c r="M42" s="154">
         <f t="shared" ref="M42" si="62">ABS(L42/ABS(K44+K42))</f>
         <v>7.7857142857142785</v>
       </c>
-      <c r="N42" s="150">
+      <c r="N42" s="151">
         <v>2.1</v>
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A43" s="152"/>
-      <c r="B43" s="152"/>
+      <c r="A43" s="147"/>
+      <c r="B43" s="147"/>
       <c r="C43" s="95">
         <v>14.760659722222222</v>
       </c>
-      <c r="D43" s="152"/>
+      <c r="D43" s="147"/>
       <c r="E43" s="95">
         <v>18.510555555555555</v>
       </c>
-      <c r="F43" s="152"/>
-      <c r="G43" s="157"/>
-      <c r="H43" s="150"/>
-      <c r="I43" s="155"/>
-      <c r="J43" s="154"/>
-      <c r="K43" s="150"/>
-      <c r="L43" s="150"/>
-      <c r="M43" s="147"/>
-      <c r="N43" s="150"/>
+      <c r="F43" s="147"/>
+      <c r="G43" s="150"/>
+      <c r="H43" s="151"/>
+      <c r="I43" s="146"/>
+      <c r="J43" s="152"/>
+      <c r="K43" s="151"/>
+      <c r="L43" s="151"/>
+      <c r="M43" s="155"/>
+      <c r="N43" s="151"/>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A44" s="152" t="s">
+      <c r="A44" s="147" t="s">
         <v>11</v>
       </c>
-      <c r="B44" s="152" t="s">
+      <c r="B44" s="147" t="s">
         <v>10</v>
       </c>
       <c r="C44" s="95">
         <v>0</v>
       </c>
-      <c r="D44" s="151">
+      <c r="D44" s="148">
         <f t="shared" ref="D44" si="63">(C46-C44+C47-C45)/2</f>
         <v>4.1051620370370383</v>
       </c>
       <c r="E44" s="95">
         <v>3.75</v>
       </c>
-      <c r="F44" s="151">
+      <c r="F44" s="148">
         <f t="shared" ref="F44" si="64">(E46-E44+E47-E45)/2</f>
         <v>4.1050115740740738</v>
       </c>
-      <c r="G44" s="156">
+      <c r="G44" s="149">
         <f t="shared" ref="G44" si="65">(D44+F44)/2</f>
         <v>4.1050868055555565</v>
       </c>
-      <c r="H44" s="150">
+      <c r="H44" s="151">
         <v>71.873000000000005</v>
       </c>
-      <c r="I44" s="155"/>
-      <c r="J44" s="154"/>
-      <c r="K44" s="150">
+      <c r="I44" s="146"/>
+      <c r="J44" s="152"/>
+      <c r="K44" s="151">
         <v>-0.71399999999999997</v>
       </c>
-      <c r="L44" s="150"/>
-      <c r="M44" s="147"/>
-      <c r="N44" s="150">
+      <c r="L44" s="151"/>
+      <c r="M44" s="155"/>
+      <c r="N44" s="151">
         <v>2.1</v>
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A45" s="152"/>
-      <c r="B45" s="152"/>
+      <c r="A45" s="147"/>
+      <c r="B45" s="147"/>
       <c r="C45" s="95">
         <v>7.4999305555555553</v>
       </c>
-      <c r="D45" s="152"/>
+      <c r="D45" s="147"/>
       <c r="E45" s="95">
         <v>11.250127314814813</v>
       </c>
-      <c r="F45" s="152"/>
-      <c r="G45" s="157"/>
-      <c r="H45" s="150"/>
-      <c r="I45" s="155"/>
-      <c r="J45" s="154"/>
-      <c r="K45" s="150"/>
-      <c r="L45" s="150"/>
-      <c r="M45" s="148"/>
-      <c r="N45" s="150"/>
+      <c r="F45" s="147"/>
+      <c r="G45" s="150"/>
+      <c r="H45" s="151"/>
+      <c r="I45" s="146"/>
+      <c r="J45" s="152"/>
+      <c r="K45" s="151"/>
+      <c r="L45" s="151"/>
+      <c r="M45" s="156"/>
+      <c r="N45" s="151"/>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A46" s="152"/>
-      <c r="B46" s="152" t="s">
+      <c r="A46" s="147"/>
+      <c r="B46" s="147" t="s">
         <v>12</v>
       </c>
       <c r="C46" s="95">
         <v>4.1051388888888889</v>
       </c>
-      <c r="D46" s="152"/>
+      <c r="D46" s="147"/>
       <c r="E46" s="95">
         <v>7.8551504629629632</v>
       </c>
-      <c r="F46" s="152"/>
-      <c r="G46" s="157"/>
-      <c r="H46" s="150">
+      <c r="F46" s="147"/>
+      <c r="G46" s="150"/>
+      <c r="H46" s="151">
         <v>78.024000000000001</v>
       </c>
-      <c r="I46" s="155">
+      <c r="I46" s="146">
         <f t="shared" ref="I46" si="66">(H46+H48)/2</f>
         <v>78.020499999999998</v>
       </c>
-      <c r="J46" s="154">
+      <c r="J46" s="152">
         <f t="shared" ref="J46" si="67">I46/ABS(H48-H46)</f>
         <v>11145.785714277748</v>
       </c>
-      <c r="K46" s="150">
+      <c r="K46" s="151">
         <v>1.214</v>
       </c>
-      <c r="L46" s="150">
+      <c r="L46" s="151">
         <f t="shared" ref="L46" si="68">(-K46+K48)/2</f>
         <v>-1.014</v>
       </c>
-      <c r="M46" s="146">
+      <c r="M46" s="154">
         <f t="shared" ref="M46" si="69">ABS(L46/ABS(K48+K46))</f>
         <v>2.5349999999999997</v>
       </c>
-      <c r="N46" s="150">
+      <c r="N46" s="151">
         <v>1.7</v>
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A47" s="152"/>
-      <c r="B47" s="152"/>
+      <c r="A47" s="147"/>
+      <c r="B47" s="147"/>
       <c r="C47" s="95">
         <v>11.605115740740741</v>
       </c>
-      <c r="D47" s="152"/>
+      <c r="D47" s="147"/>
       <c r="E47" s="95">
         <v>15.354999999999999</v>
       </c>
-      <c r="F47" s="152"/>
-      <c r="G47" s="157"/>
-      <c r="H47" s="150"/>
-      <c r="I47" s="155"/>
-      <c r="J47" s="154"/>
-      <c r="K47" s="150"/>
-      <c r="L47" s="150"/>
-      <c r="M47" s="147"/>
-      <c r="N47" s="150"/>
+      <c r="F47" s="147"/>
+      <c r="G47" s="150"/>
+      <c r="H47" s="151"/>
+      <c r="I47" s="146"/>
+      <c r="J47" s="152"/>
+      <c r="K47" s="151"/>
+      <c r="L47" s="151"/>
+      <c r="M47" s="155"/>
+      <c r="N47" s="151"/>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A48" s="152" t="s">
+      <c r="A48" s="147" t="s">
         <v>12</v>
       </c>
-      <c r="B48" s="152" t="s">
+      <c r="B48" s="147" t="s">
         <v>11</v>
       </c>
       <c r="C48" s="95">
         <v>0</v>
       </c>
-      <c r="D48" s="151">
+      <c r="D48" s="148">
         <f t="shared" ref="D48" si="70">(C50-C48+C51-C49)/2</f>
         <v>10.859108796296297</v>
       </c>
       <c r="E48" s="95">
         <v>3.75</v>
       </c>
-      <c r="F48" s="151">
+      <c r="F48" s="148">
         <f t="shared" ref="F48" si="71">(E50-E48+E51-E49)/2</f>
         <v>10.859021990740739</v>
       </c>
-      <c r="G48" s="156">
+      <c r="G48" s="149">
         <f t="shared" ref="G48" si="72">(D48+F48)/2</f>
         <v>10.859065393518518</v>
       </c>
-      <c r="H48" s="150">
+      <c r="H48" s="151">
         <v>78.016999999999996</v>
       </c>
-      <c r="I48" s="155"/>
-      <c r="J48" s="154"/>
-      <c r="K48" s="150">
+      <c r="I48" s="146"/>
+      <c r="J48" s="152"/>
+      <c r="K48" s="151">
         <v>-0.81399999999999995</v>
       </c>
-      <c r="L48" s="150"/>
-      <c r="M48" s="147"/>
-      <c r="N48" s="150">
+      <c r="L48" s="151"/>
+      <c r="M48" s="155"/>
+      <c r="N48" s="151">
         <v>1.4</v>
       </c>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A49" s="152"/>
-      <c r="B49" s="152"/>
+      <c r="A49" s="147"/>
+      <c r="B49" s="147"/>
       <c r="C49" s="95">
         <v>7.4999884259259266</v>
       </c>
-      <c r="D49" s="152"/>
+      <c r="D49" s="147"/>
       <c r="E49" s="95">
         <v>11.25005787037037</v>
       </c>
-      <c r="F49" s="152"/>
-      <c r="G49" s="157"/>
-      <c r="H49" s="150"/>
-      <c r="I49" s="155"/>
-      <c r="J49" s="154"/>
-      <c r="K49" s="150"/>
-      <c r="L49" s="150"/>
-      <c r="M49" s="148"/>
-      <c r="N49" s="150"/>
+      <c r="F49" s="147"/>
+      <c r="G49" s="150"/>
+      <c r="H49" s="151"/>
+      <c r="I49" s="146"/>
+      <c r="J49" s="152"/>
+      <c r="K49" s="151"/>
+      <c r="L49" s="151"/>
+      <c r="M49" s="156"/>
+      <c r="N49" s="151"/>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A50" s="152"/>
-      <c r="B50" s="152" t="s">
+      <c r="A50" s="147"/>
+      <c r="B50" s="147" t="s">
         <v>13</v>
       </c>
       <c r="C50" s="95">
         <v>10.859131944444444</v>
       </c>
-      <c r="D50" s="152"/>
+      <c r="D50" s="147"/>
       <c r="E50" s="95">
         <v>14.609097222222223</v>
       </c>
-      <c r="F50" s="152"/>
-      <c r="G50" s="157"/>
-      <c r="H50" s="150">
+      <c r="F50" s="147"/>
+      <c r="G50" s="150"/>
+      <c r="H50" s="151">
         <v>88.8</v>
       </c>
-      <c r="I50" s="155">
+      <c r="I50" s="146">
         <f t="shared" ref="I50" si="73">(H50+H52)/2</f>
         <v>88.795500000000004</v>
       </c>
-      <c r="J50" s="154">
+      <c r="J50" s="152">
         <f t="shared" ref="J50" si="74">I50/ABS(H52-H50)</f>
         <v>9866.1666666662932</v>
       </c>
-      <c r="K50" s="150">
+      <c r="K50" s="151">
         <v>1.127</v>
       </c>
-      <c r="L50" s="150">
+      <c r="L50" s="151">
         <f t="shared" ref="L50" si="75">(-K50+K52)/2</f>
         <v>-1.1924999999999999</v>
       </c>
-      <c r="M50" s="146">
+      <c r="M50" s="154">
         <f t="shared" ref="M50" si="76">ABS(L50/ABS(K52+K50))</f>
         <v>9.1030534351145018</v>
       </c>
-      <c r="N50" s="150">
+      <c r="N50" s="151">
         <v>1.3</v>
       </c>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A51" s="152"/>
-      <c r="B51" s="152"/>
+      <c r="A51" s="147"/>
+      <c r="B51" s="147"/>
       <c r="C51" s="95">
         <v>18.359074074074076</v>
       </c>
-      <c r="D51" s="152"/>
+      <c r="D51" s="147"/>
       <c r="E51" s="95">
         <v>22.109004629629627</v>
       </c>
-      <c r="F51" s="152"/>
-      <c r="G51" s="157"/>
-      <c r="H51" s="150"/>
-      <c r="I51" s="155"/>
-      <c r="J51" s="154"/>
-      <c r="K51" s="150"/>
-      <c r="L51" s="150"/>
-      <c r="M51" s="147"/>
-      <c r="N51" s="150"/>
+      <c r="F51" s="147"/>
+      <c r="G51" s="150"/>
+      <c r="H51" s="151"/>
+      <c r="I51" s="146"/>
+      <c r="J51" s="152"/>
+      <c r="K51" s="151"/>
+      <c r="L51" s="151"/>
+      <c r="M51" s="155"/>
+      <c r="N51" s="151"/>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A52" s="152" t="s">
+      <c r="A52" s="147" t="s">
         <v>13</v>
       </c>
-      <c r="B52" s="152" t="s">
+      <c r="B52" s="147" t="s">
         <v>12</v>
       </c>
       <c r="C52" s="95">
         <v>0</v>
       </c>
-      <c r="D52" s="151">
+      <c r="D52" s="148">
         <f t="shared" ref="D52" si="77">(C54-C52+C55-C53)/2</f>
         <v>6.7550000000000008</v>
       </c>
       <c r="E52" s="95">
         <v>3.75</v>
       </c>
-      <c r="F52" s="151">
+      <c r="F52" s="148">
         <f t="shared" ref="F52" si="78">(E54-E52+E55-E53)/2</f>
         <v>6.7549826388888894</v>
       </c>
-      <c r="G52" s="156">
+      <c r="G52" s="149">
         <f t="shared" ref="G52" si="79">(D52+F52)/2</f>
         <v>6.7549913194444446</v>
       </c>
-      <c r="H52" s="150">
+      <c r="H52" s="151">
         <v>88.790999999999997</v>
       </c>
-      <c r="I52" s="155"/>
-      <c r="J52" s="154"/>
-      <c r="K52" s="150">
+      <c r="I52" s="146"/>
+      <c r="J52" s="152"/>
+      <c r="K52" s="151">
         <v>-1.258</v>
       </c>
-      <c r="L52" s="150"/>
-      <c r="M52" s="147"/>
-      <c r="N52" s="150">
+      <c r="L52" s="151"/>
+      <c r="M52" s="155"/>
+      <c r="N52" s="151">
         <v>1.3</v>
       </c>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A53" s="152"/>
-      <c r="B53" s="152"/>
+      <c r="A53" s="147"/>
+      <c r="B53" s="147"/>
       <c r="C53" s="95">
         <v>7.499837962962963</v>
       </c>
-      <c r="D53" s="152"/>
+      <c r="D53" s="147"/>
       <c r="E53" s="95">
         <v>11.249965277777777</v>
       </c>
-      <c r="F53" s="152"/>
-      <c r="G53" s="157"/>
-      <c r="H53" s="150"/>
-      <c r="I53" s="155"/>
-      <c r="J53" s="154"/>
-      <c r="K53" s="150"/>
-      <c r="L53" s="150"/>
-      <c r="M53" s="148"/>
-      <c r="N53" s="150"/>
+      <c r="F53" s="147"/>
+      <c r="G53" s="150"/>
+      <c r="H53" s="151"/>
+      <c r="I53" s="146"/>
+      <c r="J53" s="152"/>
+      <c r="K53" s="151"/>
+      <c r="L53" s="151"/>
+      <c r="M53" s="156"/>
+      <c r="N53" s="151"/>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A54" s="152"/>
-      <c r="B54" s="152" t="s">
+      <c r="A54" s="147"/>
+      <c r="B54" s="147" t="s">
         <v>14</v>
       </c>
       <c r="C54" s="95">
         <v>6.7549305555555561</v>
       </c>
-      <c r="D54" s="152"/>
+      <c r="D54" s="147"/>
       <c r="E54" s="95">
         <v>10.504976851851852</v>
       </c>
-      <c r="F54" s="152"/>
-      <c r="G54" s="157"/>
-      <c r="H54" s="150">
+      <c r="F54" s="147"/>
+      <c r="G54" s="150"/>
+      <c r="H54" s="151">
         <v>112.032</v>
       </c>
-      <c r="I54" s="155">
+      <c r="I54" s="146">
         <f t="shared" ref="I54" si="80">(H54+H56)/2</f>
         <v>112.0325</v>
       </c>
-      <c r="J54" s="154">
+      <c r="J54" s="152">
         <f t="shared" ref="J54" si="81">I54/ABS(H56-H54)</f>
         <v>112032.49999946506</v>
       </c>
-      <c r="K54" s="150">
+      <c r="K54" s="151">
         <v>5.5339999999999998</v>
       </c>
-      <c r="L54" s="150">
+      <c r="L54" s="151">
         <f t="shared" ref="L54" si="82">(-K54+K56)/2</f>
         <v>-5.6129999999999995</v>
       </c>
-      <c r="M54" s="146">
+      <c r="M54" s="154">
         <f t="shared" ref="M54" si="83">ABS(L54/ABS(K56+K54))</f>
         <v>35.525316455696121</v>
       </c>
-      <c r="N54" s="150">
+      <c r="N54" s="151">
         <v>1.35</v>
       </c>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A55" s="152"/>
-      <c r="B55" s="152"/>
+      <c r="A55" s="147"/>
+      <c r="B55" s="147"/>
       <c r="C55" s="95">
         <v>14.254907407407408</v>
       </c>
-      <c r="D55" s="152"/>
+      <c r="D55" s="147"/>
       <c r="E55" s="95">
         <v>18.004953703703702</v>
       </c>
-      <c r="F55" s="152"/>
-      <c r="G55" s="157"/>
-      <c r="H55" s="150"/>
-      <c r="I55" s="155"/>
-      <c r="J55" s="154"/>
-      <c r="K55" s="150"/>
-      <c r="L55" s="150"/>
-      <c r="M55" s="147"/>
-      <c r="N55" s="150"/>
+      <c r="F55" s="147"/>
+      <c r="G55" s="150"/>
+      <c r="H55" s="151"/>
+      <c r="I55" s="146"/>
+      <c r="J55" s="152"/>
+      <c r="K55" s="151"/>
+      <c r="L55" s="151"/>
+      <c r="M55" s="155"/>
+      <c r="N55" s="151"/>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A56" s="152" t="s">
+      <c r="A56" s="147" t="s">
         <v>14</v>
       </c>
-      <c r="B56" s="152" t="s">
+      <c r="B56" s="147" t="s">
         <v>13</v>
       </c>
       <c r="C56" s="95">
         <v>0</v>
       </c>
-      <c r="D56" s="151">
+      <c r="D56" s="148">
         <f t="shared" ref="D56" si="84">(C58-C56+C59-C57)/2</f>
         <v>5.059942129629631</v>
       </c>
       <c r="E56" s="95">
         <v>3.75</v>
       </c>
-      <c r="F56" s="151">
+      <c r="F56" s="148">
         <f t="shared" ref="F56" si="85">(E58-E56+E59-E57)/2</f>
         <v>5.0599768518518511</v>
       </c>
-      <c r="G56" s="156">
+      <c r="G56" s="149">
         <f t="shared" ref="G56" si="86">(D56+F56)/2</f>
         <v>5.0599594907407415</v>
       </c>
-      <c r="H56" s="150">
+      <c r="H56" s="151">
         <v>112.033</v>
       </c>
-      <c r="I56" s="155"/>
-      <c r="J56" s="154"/>
-      <c r="K56" s="150">
+      <c r="I56" s="146"/>
+      <c r="J56" s="152"/>
+      <c r="K56" s="151">
         <v>-5.6920000000000002</v>
       </c>
-      <c r="L56" s="150"/>
-      <c r="M56" s="147"/>
-      <c r="N56" s="150">
+      <c r="L56" s="151"/>
+      <c r="M56" s="155"/>
+      <c r="N56" s="151">
         <v>1.3</v>
       </c>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A57" s="152"/>
-      <c r="B57" s="152"/>
+      <c r="A57" s="147"/>
+      <c r="B57" s="147"/>
       <c r="C57" s="95">
         <v>7.5000115740740734</v>
       </c>
-      <c r="D57" s="152"/>
+      <c r="D57" s="147"/>
       <c r="E57" s="95">
         <v>11.250034722222223</v>
       </c>
-      <c r="F57" s="152"/>
-      <c r="G57" s="157"/>
-      <c r="H57" s="150"/>
-      <c r="I57" s="155"/>
-      <c r="J57" s="154"/>
-      <c r="K57" s="150"/>
-      <c r="L57" s="150"/>
-      <c r="M57" s="148"/>
-      <c r="N57" s="150"/>
+      <c r="F57" s="147"/>
+      <c r="G57" s="150"/>
+      <c r="H57" s="151"/>
+      <c r="I57" s="146"/>
+      <c r="J57" s="152"/>
+      <c r="K57" s="151"/>
+      <c r="L57" s="151"/>
+      <c r="M57" s="156"/>
+      <c r="N57" s="151"/>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A58" s="152"/>
-      <c r="B58" s="152" t="s">
+      <c r="A58" s="147"/>
+      <c r="B58" s="147" t="s">
         <v>15</v>
       </c>
       <c r="C58" s="95">
         <v>5.0599305555555558</v>
       </c>
-      <c r="D58" s="152"/>
+      <c r="D58" s="147"/>
       <c r="E58" s="95">
         <v>8.809976851851852</v>
       </c>
-      <c r="F58" s="152"/>
-      <c r="G58" s="157"/>
-      <c r="H58" s="150">
+      <c r="F58" s="147"/>
+      <c r="G58" s="150"/>
+      <c r="H58" s="151">
         <v>115.65600000000001</v>
       </c>
-      <c r="I58" s="155">
+      <c r="I58" s="146">
         <f t="shared" ref="I58" si="87">(H58+H60)/2</f>
         <v>115.652</v>
       </c>
-      <c r="J58" s="154">
+      <c r="J58" s="152">
         <f t="shared" ref="J58" si="88">I58/ABS(H60-H58)</f>
         <v>14456.499999982332</v>
       </c>
-      <c r="K58" s="150">
+      <c r="K58" s="151">
         <v>2.5419999999999998</v>
       </c>
-      <c r="L58" s="150">
+      <c r="L58" s="151">
         <f t="shared" ref="L58" si="89">(-K58+K60)/2</f>
         <v>-2.6745000000000001</v>
       </c>
-      <c r="M58" s="146">
+      <c r="M58" s="154">
         <f t="shared" ref="M58" si="90">ABS(L58/ABS(K60+K58))</f>
         <v>10.092452830188675</v>
       </c>
-      <c r="N58" s="150">
+      <c r="N58" s="151">
         <v>1.35</v>
       </c>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A59" s="152"/>
-      <c r="B59" s="152"/>
+      <c r="A59" s="147"/>
+      <c r="B59" s="147"/>
       <c r="C59" s="95">
         <v>12.559965277777778</v>
       </c>
-      <c r="D59" s="152"/>
+      <c r="D59" s="147"/>
       <c r="E59" s="95">
         <v>16.310011574074075</v>
       </c>
-      <c r="F59" s="152"/>
-      <c r="G59" s="157"/>
-      <c r="H59" s="150"/>
-      <c r="I59" s="155"/>
-      <c r="J59" s="154"/>
-      <c r="K59" s="150"/>
-      <c r="L59" s="150"/>
-      <c r="M59" s="147"/>
-      <c r="N59" s="150"/>
+      <c r="F59" s="147"/>
+      <c r="G59" s="150"/>
+      <c r="H59" s="151"/>
+      <c r="I59" s="146"/>
+      <c r="J59" s="152"/>
+      <c r="K59" s="151"/>
+      <c r="L59" s="151"/>
+      <c r="M59" s="155"/>
+      <c r="N59" s="151"/>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A60" s="152" t="s">
+      <c r="A60" s="147" t="s">
         <v>15</v>
       </c>
-      <c r="B60" s="152" t="s">
+      <c r="B60" s="147" t="s">
         <v>14</v>
       </c>
       <c r="C60" s="95">
         <v>0</v>
       </c>
-      <c r="D60" s="151">
+      <c r="D60" s="148">
         <f>(C62-C60+C63-C61)/2</f>
         <v>8.3021469907407397</v>
       </c>
       <c r="E60" s="95">
         <v>3.75</v>
       </c>
-      <c r="F60" s="151">
+      <c r="F60" s="148">
         <f t="shared" ref="F60" si="91">(E62-E60+E63-E61)/2</f>
         <v>8.3020833333333321</v>
       </c>
-      <c r="G60" s="156">
+      <c r="G60" s="149">
         <f t="shared" ref="G60" si="92">(D60+F60)/2</f>
         <v>8.3021151620370368</v>
       </c>
-      <c r="H60" s="150">
+      <c r="H60" s="151">
         <v>115.648</v>
       </c>
-      <c r="I60" s="155"/>
-      <c r="J60" s="154"/>
-      <c r="K60" s="150">
+      <c r="I60" s="146"/>
+      <c r="J60" s="152"/>
+      <c r="K60" s="151">
         <v>-2.8069999999999999</v>
       </c>
-      <c r="L60" s="150"/>
-      <c r="M60" s="147"/>
-      <c r="N60" s="150">
+      <c r="L60" s="151"/>
+      <c r="M60" s="155"/>
+      <c r="N60" s="151">
         <v>1.3</v>
       </c>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A61" s="152"/>
-      <c r="B61" s="152"/>
+      <c r="A61" s="147"/>
+      <c r="B61" s="147"/>
       <c r="C61" s="95">
         <v>7.5000925925925932</v>
       </c>
-      <c r="D61" s="152"/>
+      <c r="D61" s="147"/>
       <c r="E61" s="95">
         <v>11.250150462962964</v>
       </c>
-      <c r="F61" s="152"/>
-      <c r="G61" s="157"/>
-      <c r="H61" s="150"/>
-      <c r="I61" s="155"/>
-      <c r="J61" s="154"/>
-      <c r="K61" s="150"/>
-      <c r="L61" s="150"/>
-      <c r="M61" s="148"/>
-      <c r="N61" s="150"/>
+      <c r="F61" s="147"/>
+      <c r="G61" s="150"/>
+      <c r="H61" s="151"/>
+      <c r="I61" s="146"/>
+      <c r="J61" s="152"/>
+      <c r="K61" s="151"/>
+      <c r="L61" s="151"/>
+      <c r="M61" s="156"/>
+      <c r="N61" s="151"/>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A62" s="152"/>
-      <c r="B62" s="152" t="s">
+      <c r="A62" s="147"/>
+      <c r="B62" s="147" t="s">
         <v>16</v>
       </c>
       <c r="C62" s="95">
         <v>8.3021296296296292</v>
       </c>
-      <c r="D62" s="152"/>
+      <c r="D62" s="147"/>
       <c r="E62" s="95">
         <v>12.052175925925924</v>
       </c>
-      <c r="F62" s="152"/>
-      <c r="G62" s="157"/>
-      <c r="H62" s="150">
+      <c r="F62" s="147"/>
+      <c r="G62" s="150"/>
+      <c r="H62" s="151">
         <v>88.119</v>
       </c>
-      <c r="I62" s="155">
+      <c r="I62" s="146">
         <f t="shared" ref="I62" si="93">(H62+H64)/2</f>
         <v>88.111999999999995</v>
       </c>
-      <c r="J62" s="154">
+      <c r="J62" s="152">
         <f t="shared" ref="J62" si="94">I62/ABS(H64-H62)</f>
         <v>6293.7142857161762</v>
       </c>
-      <c r="K62" s="150">
+      <c r="K62" s="151">
         <v>5.22</v>
       </c>
-      <c r="L62" s="150">
+      <c r="L62" s="151">
         <f t="shared" ref="L62" si="95">(-K62+K64)/2</f>
         <v>-5.0724999999999998</v>
       </c>
-      <c r="M62" s="146">
+      <c r="M62" s="154">
         <f t="shared" ref="M62" si="96">ABS(L62/ABS(K64+K62))</f>
         <v>17.194915254237291</v>
       </c>
-      <c r="N62" s="150">
+      <c r="N62" s="151">
         <v>1.8</v>
       </c>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A63" s="152"/>
-      <c r="B63" s="152"/>
+      <c r="A63" s="147"/>
+      <c r="B63" s="147"/>
       <c r="C63" s="95">
         <v>15.802256944444444</v>
       </c>
-      <c r="D63" s="152"/>
+      <c r="D63" s="147"/>
       <c r="E63" s="95">
         <v>19.552141203703702</v>
       </c>
-      <c r="F63" s="152"/>
-      <c r="G63" s="157"/>
-      <c r="H63" s="150"/>
-      <c r="I63" s="155"/>
-      <c r="J63" s="154"/>
-      <c r="K63" s="150"/>
-      <c r="L63" s="150"/>
-      <c r="M63" s="147"/>
-      <c r="N63" s="150"/>
+      <c r="F63" s="147"/>
+      <c r="G63" s="150"/>
+      <c r="H63" s="151"/>
+      <c r="I63" s="146"/>
+      <c r="J63" s="152"/>
+      <c r="K63" s="151"/>
+      <c r="L63" s="151"/>
+      <c r="M63" s="155"/>
+      <c r="N63" s="151"/>
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A64" s="152" t="s">
+      <c r="A64" s="147" t="s">
         <v>16</v>
       </c>
-      <c r="B64" s="152" t="s">
+      <c r="B64" s="147" t="s">
         <v>15</v>
       </c>
       <c r="C64" s="95">
         <v>0</v>
       </c>
-      <c r="D64" s="151">
+      <c r="D64" s="148">
         <f>(C66-C64+C67-C65)/2</f>
         <v>4.7881134259259266</v>
       </c>
       <c r="E64" s="95">
         <v>3.75</v>
       </c>
-      <c r="F64" s="151">
+      <c r="F64" s="148">
         <f t="shared" ref="F64" si="97">(E66-E64+E67-E65)/2</f>
         <v>4.7881597222222219</v>
       </c>
-      <c r="G64" s="156">
+      <c r="G64" s="149">
         <f t="shared" ref="G64" si="98">(D64+F64)/2</f>
         <v>4.7881365740740742</v>
       </c>
-      <c r="H64" s="150">
+      <c r="H64" s="151">
         <v>88.105000000000004</v>
       </c>
-      <c r="I64" s="155"/>
-      <c r="J64" s="154"/>
-      <c r="K64" s="150">
+      <c r="I64" s="146"/>
+      <c r="J64" s="152"/>
+      <c r="K64" s="151">
         <v>-4.9249999999999998</v>
       </c>
-      <c r="L64" s="150"/>
-      <c r="M64" s="147"/>
-      <c r="N64" s="150">
+      <c r="L64" s="151"/>
+      <c r="M64" s="155"/>
+      <c r="N64" s="151">
         <v>1.4</v>
       </c>
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A65" s="152"/>
-      <c r="B65" s="152"/>
+      <c r="A65" s="147"/>
+      <c r="B65" s="147"/>
       <c r="C65" s="95">
         <v>7.5001157407407399</v>
       </c>
-      <c r="D65" s="152"/>
+      <c r="D65" s="147"/>
       <c r="E65" s="95">
         <v>11.25005787037037</v>
       </c>
-      <c r="F65" s="152"/>
-      <c r="G65" s="157"/>
-      <c r="H65" s="150"/>
-      <c r="I65" s="155"/>
-      <c r="J65" s="154"/>
-      <c r="K65" s="150"/>
-      <c r="L65" s="150"/>
-      <c r="M65" s="148"/>
-      <c r="N65" s="150"/>
+      <c r="F65" s="147"/>
+      <c r="G65" s="150"/>
+      <c r="H65" s="151"/>
+      <c r="I65" s="146"/>
+      <c r="J65" s="152"/>
+      <c r="K65" s="151"/>
+      <c r="L65" s="151"/>
+      <c r="M65" s="156"/>
+      <c r="N65" s="151"/>
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A66" s="152"/>
-      <c r="B66" s="152" t="s">
+      <c r="A66" s="147"/>
+      <c r="B66" s="147" t="s">
         <v>0</v>
       </c>
       <c r="C66" s="95">
         <v>4.7882175925925923</v>
       </c>
-      <c r="D66" s="152"/>
+      <c r="D66" s="147"/>
       <c r="E66" s="95">
         <v>8.5381481481481476</v>
       </c>
-      <c r="F66" s="152"/>
-      <c r="G66" s="157"/>
-      <c r="H66" s="150">
+      <c r="F66" s="147"/>
+      <c r="G66" s="150"/>
+      <c r="H66" s="151">
         <v>126.755</v>
       </c>
-      <c r="I66" s="155">
+      <c r="I66" s="146">
         <f t="shared" ref="I66" si="99">(H66+H68)/2</f>
         <v>126.747</v>
       </c>
-      <c r="J66" s="154">
+      <c r="J66" s="152">
         <f t="shared" ref="J66" si="100">I66/ABS(H68-H66)</f>
         <v>7921.6875000043901</v>
       </c>
-      <c r="K66" s="150">
+      <c r="K66" s="151">
         <v>-2.7429999999999999</v>
       </c>
-      <c r="L66" s="150">
+      <c r="L66" s="151">
         <f t="shared" ref="L66" si="101">(-K66+K68)/2</f>
         <v>3.0934999999999997</v>
       </c>
-      <c r="M66" s="146">
+      <c r="M66" s="154">
         <f t="shared" ref="M66" si="102">ABS(L66/ABS(K68+K66))</f>
         <v>4.4129814550641928</v>
       </c>
-      <c r="N66" s="150">
+      <c r="N66" s="151">
         <v>1.55</v>
       </c>
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A67" s="152"/>
-      <c r="B67" s="152"/>
+      <c r="A67" s="147"/>
+      <c r="B67" s="147"/>
       <c r="C67" s="95">
         <v>12.288125000000001</v>
       </c>
-      <c r="D67" s="152"/>
+      <c r="D67" s="147"/>
       <c r="E67" s="95">
         <v>16.038229166666667</v>
       </c>
-      <c r="F67" s="152"/>
-      <c r="G67" s="157"/>
-      <c r="H67" s="150"/>
-      <c r="I67" s="155"/>
-      <c r="J67" s="154"/>
-      <c r="K67" s="150"/>
-      <c r="L67" s="150"/>
-      <c r="M67" s="147"/>
-      <c r="N67" s="150"/>
+      <c r="F67" s="147"/>
+      <c r="G67" s="150"/>
+      <c r="H67" s="151"/>
+      <c r="I67" s="146"/>
+      <c r="J67" s="152"/>
+      <c r="K67" s="151"/>
+      <c r="L67" s="151"/>
+      <c r="M67" s="155"/>
+      <c r="N67" s="151"/>
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A68" s="152" t="s">
+      <c r="A68" s="147" t="s">
         <v>0</v>
       </c>
-      <c r="B68" s="152" t="s">
+      <c r="B68" s="147" t="s">
         <v>16</v>
       </c>
       <c r="C68" s="95">
         <v>0</v>
       </c>
-      <c r="D68" s="151">
+      <c r="D68" s="148">
         <f>(C70-C68+C71-C69)/2</f>
         <v>7.9803587962962954</v>
       </c>
       <c r="E68" s="95">
         <v>3.75</v>
       </c>
-      <c r="F68" s="151">
+      <c r="F68" s="148">
         <f t="shared" ref="F68" si="103">(E70-E68+E71-E69)/2</f>
         <v>7.9802256944444441</v>
       </c>
-      <c r="G68" s="156">
+      <c r="G68" s="149">
         <f t="shared" ref="G68" si="104">(D68+F68)/2</f>
         <v>7.9802922453703697</v>
       </c>
-      <c r="H68" s="150">
+      <c r="H68" s="151">
         <v>126.739</v>
       </c>
-      <c r="I68" s="155"/>
-      <c r="J68" s="154"/>
-      <c r="K68" s="150">
+      <c r="I68" s="146"/>
+      <c r="J68" s="152"/>
+      <c r="K68" s="151">
         <v>3.444</v>
       </c>
-      <c r="L68" s="150"/>
-      <c r="M68" s="147"/>
-      <c r="N68" s="150">
+      <c r="L68" s="151"/>
+      <c r="M68" s="155"/>
+      <c r="N68" s="151">
         <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A69" s="152"/>
-      <c r="B69" s="152"/>
+      <c r="A69" s="147"/>
+      <c r="B69" s="147"/>
       <c r="C69" s="95">
         <v>7.4998611111111115</v>
       </c>
-      <c r="D69" s="152"/>
+      <c r="D69" s="147"/>
       <c r="E69" s="95">
         <v>11.24994212962963</v>
       </c>
-      <c r="F69" s="152"/>
-      <c r="G69" s="157"/>
-      <c r="H69" s="150"/>
-      <c r="I69" s="155"/>
-      <c r="J69" s="154"/>
-      <c r="K69" s="150"/>
-      <c r="L69" s="150"/>
-      <c r="M69" s="148"/>
-      <c r="N69" s="150"/>
+      <c r="F69" s="147"/>
+      <c r="G69" s="150"/>
+      <c r="H69" s="151"/>
+      <c r="I69" s="146"/>
+      <c r="J69" s="152"/>
+      <c r="K69" s="151"/>
+      <c r="L69" s="151"/>
+      <c r="M69" s="156"/>
+      <c r="N69" s="151"/>
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A70" s="152"/>
-      <c r="B70" s="152" t="s">
+      <c r="A70" s="147"/>
+      <c r="B70" s="147" t="s">
         <v>17</v>
       </c>
       <c r="C70" s="95">
         <v>7.9803935185185182</v>
       </c>
-      <c r="D70" s="152"/>
+      <c r="D70" s="147"/>
       <c r="E70" s="95">
         <v>11.730243055555555</v>
       </c>
-      <c r="F70" s="152"/>
-      <c r="G70" s="157"/>
-      <c r="H70" s="150">
+      <c r="F70" s="147"/>
+      <c r="G70" s="150"/>
+      <c r="H70" s="151">
         <v>91.695999999999998</v>
       </c>
-      <c r="I70" s="155">
+      <c r="I70" s="146">
         <f t="shared" ref="I70" si="105">(H70+H72)/2</f>
         <v>91.6875</v>
       </c>
-      <c r="J70" s="154">
+      <c r="J70" s="152">
         <f t="shared" ref="J70" si="106">I70/ABS(H72-H70)</f>
         <v>5393.3823529424753</v>
       </c>
-      <c r="K70" s="150">
+      <c r="K70" s="151">
         <v>-1.6160000000000001</v>
       </c>
-      <c r="L70" s="150">
+      <c r="L70" s="151">
         <f t="shared" ref="L70" si="107">(-K70+K72)/2</f>
         <v>1.702</v>
       </c>
-      <c r="M70" s="146">
+      <c r="M70" s="154">
         <f t="shared" ref="M70" si="108">ABS(L70/ABS(K72+K70))</f>
         <v>9.8953488372093066</v>
       </c>
-      <c r="N70" s="150">
+      <c r="N70" s="151">
         <v>1.3</v>
       </c>
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A71" s="152"/>
-      <c r="B71" s="152"/>
+      <c r="A71" s="147"/>
+      <c r="B71" s="147"/>
       <c r="C71" s="95">
         <v>15.480185185185185</v>
       </c>
-      <c r="D71" s="152"/>
+      <c r="D71" s="147"/>
       <c r="E71" s="95">
         <v>19.230150462962964</v>
       </c>
-      <c r="F71" s="152"/>
-      <c r="G71" s="157"/>
-      <c r="H71" s="150"/>
-      <c r="I71" s="155"/>
-      <c r="J71" s="154"/>
-      <c r="K71" s="150"/>
-      <c r="L71" s="150"/>
-      <c r="M71" s="147"/>
-      <c r="N71" s="150"/>
+      <c r="F71" s="147"/>
+      <c r="G71" s="150"/>
+      <c r="H71" s="151"/>
+      <c r="I71" s="146"/>
+      <c r="J71" s="152"/>
+      <c r="K71" s="151"/>
+      <c r="L71" s="151"/>
+      <c r="M71" s="155"/>
+      <c r="N71" s="151"/>
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A72" s="152" t="s">
+      <c r="A72" s="147" t="s">
         <v>17</v>
       </c>
-      <c r="B72" s="152" t="s">
+      <c r="B72" s="147" t="s">
         <v>0</v>
       </c>
       <c r="C72" s="95">
         <v>0</v>
       </c>
-      <c r="D72" s="151">
+      <c r="D72" s="148">
         <f>(C74-C72+C75-C73)/2</f>
         <v>6.2006828703703718</v>
       </c>
       <c r="E72" s="95">
         <v>3.75</v>
       </c>
-      <c r="F72" s="151">
+      <c r="F72" s="148">
         <f t="shared" ref="F72" si="109">(E74-E72+E75-E73)/2</f>
         <v>6.2007118055555557</v>
       </c>
-      <c r="G72" s="156">
+      <c r="G72" s="149">
         <f t="shared" ref="G72" si="110">(D72+F72)/2</f>
         <v>6.2006973379629642</v>
       </c>
-      <c r="H72" s="150">
+      <c r="H72" s="151">
         <v>91.679000000000002</v>
       </c>
-      <c r="I72" s="155"/>
-      <c r="J72" s="154"/>
-      <c r="K72" s="150">
+      <c r="I72" s="146"/>
+      <c r="J72" s="152"/>
+      <c r="K72" s="151">
         <v>1.788</v>
       </c>
-      <c r="L72" s="150"/>
-      <c r="M72" s="147"/>
-      <c r="N72" s="150">
+      <c r="L72" s="151"/>
+      <c r="M72" s="155"/>
+      <c r="N72" s="151">
         <v>1.6</v>
       </c>
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A73" s="152"/>
-      <c r="B73" s="152"/>
+      <c r="A73" s="147"/>
+      <c r="B73" s="147"/>
       <c r="C73" s="95">
         <v>7.4999074074074068</v>
       </c>
-      <c r="D73" s="152"/>
+      <c r="D73" s="147"/>
       <c r="E73" s="95">
         <v>11.250069444444444</v>
       </c>
-      <c r="F73" s="152"/>
-      <c r="G73" s="157"/>
-      <c r="H73" s="150"/>
-      <c r="I73" s="155"/>
-      <c r="J73" s="154"/>
-      <c r="K73" s="150"/>
-      <c r="L73" s="150"/>
-      <c r="M73" s="148"/>
-      <c r="N73" s="150"/>
+      <c r="F73" s="147"/>
+      <c r="G73" s="150"/>
+      <c r="H73" s="151"/>
+      <c r="I73" s="146"/>
+      <c r="J73" s="152"/>
+      <c r="K73" s="151"/>
+      <c r="L73" s="151"/>
+      <c r="M73" s="156"/>
+      <c r="N73" s="151"/>
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A74" s="152"/>
-      <c r="B74" s="152" t="s">
+      <c r="A74" s="147"/>
+      <c r="B74" s="147" t="s">
         <v>18</v>
       </c>
       <c r="C74" s="95">
         <v>6.2005787037037043</v>
       </c>
-      <c r="D74" s="152"/>
+      <c r="D74" s="147"/>
       <c r="E74" s="95">
         <v>9.9507291666666671</v>
       </c>
-      <c r="F74" s="152"/>
-      <c r="G74" s="157"/>
-      <c r="H74" s="150">
+      <c r="F74" s="147"/>
+      <c r="G74" s="150"/>
+      <c r="H74" s="151">
         <v>92.477000000000004</v>
       </c>
-      <c r="I74" s="155">
+      <c r="I74" s="146">
         <f t="shared" ref="I74" si="111">(H74+H76)/2</f>
         <v>92.484499999999997</v>
       </c>
-      <c r="J74" s="154">
+      <c r="J74" s="152">
         <f t="shared" ref="J74" si="112">I74/ABS(H76-H74)</f>
         <v>6165.6333333330995</v>
       </c>
-      <c r="K74" s="150">
+      <c r="K74" s="151">
         <v>-0.90200000000000002</v>
       </c>
-      <c r="L74" s="150">
+      <c r="L74" s="151">
         <f t="shared" ref="L74" si="113">(-K74+K76)/2</f>
         <v>1.044</v>
       </c>
-      <c r="M74" s="146">
+      <c r="M74" s="154">
         <f t="shared" ref="M74" si="114">ABS(L74/ABS(K76+K74))</f>
         <v>3.6760563380281703</v>
       </c>
-      <c r="N74" s="150">
+      <c r="N74" s="151">
         <v>1.75</v>
       </c>
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A75" s="152"/>
-      <c r="B75" s="152"/>
+      <c r="A75" s="147"/>
+      <c r="B75" s="147"/>
       <c r="C75" s="95">
         <v>13.700694444444444</v>
       </c>
-      <c r="D75" s="152"/>
+      <c r="D75" s="147"/>
       <c r="E75" s="95">
         <v>17.45076388888889</v>
       </c>
-      <c r="F75" s="152"/>
-      <c r="G75" s="157"/>
-      <c r="H75" s="150"/>
-      <c r="I75" s="155"/>
-      <c r="J75" s="154"/>
-      <c r="K75" s="150"/>
-      <c r="L75" s="150"/>
-      <c r="M75" s="147"/>
-      <c r="N75" s="150"/>
+      <c r="F75" s="147"/>
+      <c r="G75" s="150"/>
+      <c r="H75" s="151"/>
+      <c r="I75" s="146"/>
+      <c r="J75" s="152"/>
+      <c r="K75" s="151"/>
+      <c r="L75" s="151"/>
+      <c r="M75" s="155"/>
+      <c r="N75" s="151"/>
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A76" s="152" t="s">
+      <c r="A76" s="147" t="s">
         <v>18</v>
       </c>
-      <c r="B76" s="152" t="s">
+      <c r="B76" s="147" t="s">
         <v>17</v>
       </c>
       <c r="C76" s="95">
         <v>0</v>
       </c>
-      <c r="D76" s="151">
+      <c r="D76" s="148">
         <f>(C78-C76+C79-C77)/2</f>
         <v>4.6066724537037054</v>
       </c>
       <c r="E76" s="95">
         <v>3.75</v>
       </c>
-      <c r="F76" s="151">
+      <c r="F76" s="148">
         <f t="shared" ref="F76" si="115">(E78-E76+E79-E77)/2</f>
         <v>4.6066666666666682</v>
       </c>
-      <c r="G76" s="156">
+      <c r="G76" s="149">
         <f t="shared" ref="G76" si="116">(D76+F76)/2</f>
         <v>4.6066695601851873</v>
       </c>
-      <c r="H76" s="150">
+      <c r="H76" s="151">
         <v>92.492000000000004</v>
       </c>
-      <c r="I76" s="155"/>
-      <c r="J76" s="154"/>
-      <c r="K76" s="150">
+      <c r="I76" s="146"/>
+      <c r="J76" s="152"/>
+      <c r="K76" s="151">
         <v>1.1859999999999999</v>
       </c>
-      <c r="L76" s="150"/>
-      <c r="M76" s="147"/>
-      <c r="N76" s="150">
+      <c r="L76" s="151"/>
+      <c r="M76" s="155"/>
+      <c r="N76" s="151">
         <v>1.6</v>
       </c>
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A77" s="152"/>
-      <c r="B77" s="152"/>
+      <c r="A77" s="147"/>
+      <c r="B77" s="147"/>
       <c r="C77" s="95">
         <v>7.5000115740740734</v>
       </c>
-      <c r="D77" s="152"/>
+      <c r="D77" s="147"/>
       <c r="E77" s="95">
         <v>11.250023148148147</v>
       </c>
-      <c r="F77" s="152"/>
-      <c r="G77" s="157"/>
-      <c r="H77" s="150"/>
-      <c r="I77" s="155"/>
-      <c r="J77" s="154"/>
-      <c r="K77" s="150"/>
-      <c r="L77" s="150"/>
-      <c r="M77" s="148"/>
-      <c r="N77" s="150"/>
+      <c r="F77" s="147"/>
+      <c r="G77" s="150"/>
+      <c r="H77" s="151"/>
+      <c r="I77" s="146"/>
+      <c r="J77" s="152"/>
+      <c r="K77" s="151"/>
+      <c r="L77" s="151"/>
+      <c r="M77" s="156"/>
+      <c r="N77" s="151"/>
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A78" s="152"/>
-      <c r="B78" s="152" t="s">
+      <c r="A78" s="147"/>
+      <c r="B78" s="147" t="s">
         <v>1</v>
       </c>
       <c r="C78" s="95">
         <v>4.6067129629629635</v>
       </c>
-      <c r="D78" s="152"/>
+      <c r="D78" s="147"/>
       <c r="E78" s="95">
         <v>8.3566666666666674</v>
       </c>
-      <c r="F78" s="152"/>
-      <c r="G78" s="157"/>
-      <c r="H78" s="150">
+      <c r="F78" s="147"/>
+      <c r="G78" s="150"/>
+      <c r="H78" s="151">
         <v>105.96599999999999</v>
       </c>
-      <c r="I78" s="155">
+      <c r="I78" s="146">
         <f>I4</f>
         <v>105.9735</v>
       </c>
-      <c r="J78" s="154">
+      <c r="J78" s="152">
         <f>J4</f>
         <v>7064.8999999997322</v>
       </c>
-      <c r="K78" s="150">
+      <c r="K78" s="151">
         <v>-3.3639999999999999</v>
       </c>
-      <c r="L78" s="150">
+      <c r="L78" s="151">
         <f>L4</f>
         <v>3.5169999999999999</v>
       </c>
-      <c r="M78" s="149">
+      <c r="M78" s="157">
         <f>M4</f>
         <v>11.49346405228758</v>
       </c>
-      <c r="N78" s="150">
+      <c r="N78" s="151">
         <v>1.65</v>
       </c>
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A79" s="152"/>
-      <c r="B79" s="152"/>
+      <c r="A79" s="147"/>
+      <c r="B79" s="147"/>
       <c r="C79" s="95">
         <v>12.106643518518519</v>
       </c>
-      <c r="D79" s="152"/>
+      <c r="D79" s="147"/>
       <c r="E79" s="95">
         <v>15.856689814814814</v>
       </c>
-      <c r="F79" s="152"/>
-      <c r="G79" s="157"/>
-      <c r="H79" s="150"/>
-      <c r="I79" s="155"/>
-      <c r="J79" s="154"/>
-      <c r="K79" s="150"/>
-      <c r="L79" s="150"/>
-      <c r="M79" s="149"/>
-      <c r="N79" s="150"/>
+      <c r="F79" s="147"/>
+      <c r="G79" s="150"/>
+      <c r="H79" s="151"/>
+      <c r="I79" s="146"/>
+      <c r="J79" s="152"/>
+      <c r="K79" s="151"/>
+      <c r="L79" s="151"/>
+      <c r="M79" s="157"/>
+      <c r="N79" s="151"/>
     </row>
   </sheetData>
   <mergeCells count="309">
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="I78:I79"/>
-    <mergeCell ref="I30:I33"/>
-    <mergeCell ref="I34:I37"/>
-    <mergeCell ref="I38:I41"/>
-    <mergeCell ref="I42:I45"/>
-    <mergeCell ref="I46:I49"/>
-    <mergeCell ref="I50:I53"/>
-    <mergeCell ref="I54:I57"/>
-    <mergeCell ref="I58:I61"/>
-    <mergeCell ref="I62:I65"/>
-    <mergeCell ref="I26:I29"/>
-    <mergeCell ref="I74:I77"/>
+    <mergeCell ref="M58:M61"/>
+    <mergeCell ref="M54:M57"/>
+    <mergeCell ref="M50:M53"/>
+    <mergeCell ref="M46:M49"/>
+    <mergeCell ref="M42:M45"/>
+    <mergeCell ref="M78:M79"/>
+    <mergeCell ref="M74:M77"/>
+    <mergeCell ref="M70:M73"/>
+    <mergeCell ref="M66:M69"/>
+    <mergeCell ref="M62:M65"/>
+    <mergeCell ref="M18:M21"/>
+    <mergeCell ref="M14:M17"/>
+    <mergeCell ref="M10:M13"/>
+    <mergeCell ref="M6:M9"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="M38:M41"/>
+    <mergeCell ref="M34:M37"/>
+    <mergeCell ref="M30:M33"/>
+    <mergeCell ref="M26:M29"/>
+    <mergeCell ref="M22:M25"/>
+    <mergeCell ref="L62:L65"/>
+    <mergeCell ref="L66:L69"/>
+    <mergeCell ref="L70:L73"/>
+    <mergeCell ref="L74:L77"/>
+    <mergeCell ref="L78:L79"/>
+    <mergeCell ref="L42:L45"/>
+    <mergeCell ref="L46:L49"/>
+    <mergeCell ref="L50:L53"/>
+    <mergeCell ref="L54:L57"/>
+    <mergeCell ref="L58:L61"/>
+    <mergeCell ref="L22:L25"/>
+    <mergeCell ref="L26:L29"/>
+    <mergeCell ref="L30:L33"/>
+    <mergeCell ref="L34:L37"/>
+    <mergeCell ref="L38:L41"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="L6:L9"/>
+    <mergeCell ref="L10:L13"/>
+    <mergeCell ref="L14:L17"/>
+    <mergeCell ref="L18:L21"/>
+    <mergeCell ref="N20:N21"/>
+    <mergeCell ref="D4:D7"/>
+    <mergeCell ref="D8:D11"/>
+    <mergeCell ref="D12:D15"/>
+    <mergeCell ref="D16:D19"/>
+    <mergeCell ref="D20:D23"/>
+    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="J78:J79"/>
+    <mergeCell ref="J6:J9"/>
+    <mergeCell ref="J10:J13"/>
+    <mergeCell ref="J14:J17"/>
+    <mergeCell ref="J18:J21"/>
+    <mergeCell ref="J22:J25"/>
+    <mergeCell ref="J26:J29"/>
+    <mergeCell ref="J30:J33"/>
+    <mergeCell ref="J34:J37"/>
+    <mergeCell ref="J38:J41"/>
+    <mergeCell ref="J62:J65"/>
+    <mergeCell ref="J66:J69"/>
+    <mergeCell ref="J70:J73"/>
+    <mergeCell ref="J74:J77"/>
+    <mergeCell ref="J42:J45"/>
+    <mergeCell ref="J46:J49"/>
+    <mergeCell ref="H54:H55"/>
+    <mergeCell ref="H56:H57"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="N6:N7"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="N44:N45"/>
+    <mergeCell ref="N46:N47"/>
+    <mergeCell ref="N48:N49"/>
+    <mergeCell ref="N50:N51"/>
+    <mergeCell ref="N22:N23"/>
+    <mergeCell ref="N24:N25"/>
+    <mergeCell ref="N26:N27"/>
+    <mergeCell ref="N28:N29"/>
+    <mergeCell ref="N30:N31"/>
+    <mergeCell ref="K34:K35"/>
+    <mergeCell ref="K50:K51"/>
+    <mergeCell ref="H30:H31"/>
+    <mergeCell ref="H32:H33"/>
+    <mergeCell ref="H34:H35"/>
+    <mergeCell ref="H24:H25"/>
+    <mergeCell ref="H26:H27"/>
+    <mergeCell ref="H46:H47"/>
+    <mergeCell ref="H28:H29"/>
+    <mergeCell ref="N74:N75"/>
+    <mergeCell ref="N76:N77"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="H36:H37"/>
+    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="A16:A19"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="A4:A7"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="A8:A11"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="H18:H19"/>
+    <mergeCell ref="K18:K19"/>
+    <mergeCell ref="K32:K33"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="K12:K13"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="K14:K15"/>
+    <mergeCell ref="H70:H71"/>
+    <mergeCell ref="K68:K69"/>
+    <mergeCell ref="H68:H69"/>
+    <mergeCell ref="K60:K61"/>
+    <mergeCell ref="K62:K63"/>
+    <mergeCell ref="K64:K65"/>
+    <mergeCell ref="K58:K59"/>
+    <mergeCell ref="J58:J61"/>
+    <mergeCell ref="I66:I69"/>
+    <mergeCell ref="I70:I73"/>
+    <mergeCell ref="N52:N53"/>
+    <mergeCell ref="N54:N55"/>
+    <mergeCell ref="N32:N33"/>
+    <mergeCell ref="N34:N35"/>
+    <mergeCell ref="N36:N37"/>
+    <mergeCell ref="N38:N39"/>
+    <mergeCell ref="N40:N41"/>
+    <mergeCell ref="N42:N43"/>
+    <mergeCell ref="H78:H79"/>
+    <mergeCell ref="K78:K79"/>
+    <mergeCell ref="H76:H77"/>
+    <mergeCell ref="K76:K77"/>
+    <mergeCell ref="K42:K43"/>
+    <mergeCell ref="K44:K45"/>
+    <mergeCell ref="K54:K55"/>
+    <mergeCell ref="J50:J53"/>
+    <mergeCell ref="N78:N79"/>
+    <mergeCell ref="N56:N57"/>
+    <mergeCell ref="N58:N59"/>
+    <mergeCell ref="N60:N61"/>
+    <mergeCell ref="N62:N63"/>
+    <mergeCell ref="N64:N65"/>
+    <mergeCell ref="N66:N67"/>
+    <mergeCell ref="K70:K71"/>
+    <mergeCell ref="N8:N9"/>
+    <mergeCell ref="N10:N11"/>
+    <mergeCell ref="N12:N13"/>
+    <mergeCell ref="N14:N15"/>
+    <mergeCell ref="N16:N17"/>
+    <mergeCell ref="N18:N19"/>
+    <mergeCell ref="H72:H73"/>
+    <mergeCell ref="K72:K73"/>
+    <mergeCell ref="H74:H75"/>
+    <mergeCell ref="K74:K75"/>
+    <mergeCell ref="H66:H67"/>
+    <mergeCell ref="K66:K67"/>
+    <mergeCell ref="H60:H61"/>
+    <mergeCell ref="H62:H63"/>
+    <mergeCell ref="H64:H65"/>
+    <mergeCell ref="H58:H59"/>
+    <mergeCell ref="K48:K49"/>
+    <mergeCell ref="N68:N69"/>
+    <mergeCell ref="N70:N71"/>
+    <mergeCell ref="N72:N73"/>
+    <mergeCell ref="K26:K27"/>
+    <mergeCell ref="K16:K17"/>
+    <mergeCell ref="K56:K57"/>
+    <mergeCell ref="J54:J57"/>
+    <mergeCell ref="K30:K31"/>
+    <mergeCell ref="K46:K47"/>
+    <mergeCell ref="K20:K21"/>
+    <mergeCell ref="K36:K37"/>
+    <mergeCell ref="K22:K23"/>
+    <mergeCell ref="K38:K39"/>
+    <mergeCell ref="K24:K25"/>
+    <mergeCell ref="K40:K41"/>
+    <mergeCell ref="K52:K53"/>
+    <mergeCell ref="K28:K29"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="K8:K9"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="K10:K11"/>
+    <mergeCell ref="I6:I9"/>
+    <mergeCell ref="I10:I13"/>
+    <mergeCell ref="I14:I17"/>
+    <mergeCell ref="I18:I21"/>
+    <mergeCell ref="I22:I25"/>
+    <mergeCell ref="H20:H21"/>
+    <mergeCell ref="H22:H23"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="G32:G35"/>
+    <mergeCell ref="G36:G39"/>
+    <mergeCell ref="G40:G43"/>
+    <mergeCell ref="G44:G47"/>
+    <mergeCell ref="H52:H53"/>
+    <mergeCell ref="H38:H39"/>
+    <mergeCell ref="H40:H41"/>
+    <mergeCell ref="H42:H43"/>
+    <mergeCell ref="H44:H45"/>
+    <mergeCell ref="H48:H49"/>
+    <mergeCell ref="H50:H51"/>
+    <mergeCell ref="F68:F71"/>
+    <mergeCell ref="F72:F75"/>
+    <mergeCell ref="F76:F79"/>
+    <mergeCell ref="G4:G7"/>
+    <mergeCell ref="G8:G11"/>
+    <mergeCell ref="G12:G15"/>
+    <mergeCell ref="G16:G19"/>
+    <mergeCell ref="G20:G23"/>
+    <mergeCell ref="F36:F39"/>
+    <mergeCell ref="F40:F43"/>
+    <mergeCell ref="F44:F47"/>
+    <mergeCell ref="F48:F51"/>
+    <mergeCell ref="F52:F55"/>
+    <mergeCell ref="F56:F59"/>
+    <mergeCell ref="G72:G75"/>
+    <mergeCell ref="G76:G79"/>
+    <mergeCell ref="G68:G71"/>
+    <mergeCell ref="G48:G51"/>
+    <mergeCell ref="G52:G55"/>
+    <mergeCell ref="G56:G59"/>
+    <mergeCell ref="G60:G63"/>
+    <mergeCell ref="G64:G67"/>
+    <mergeCell ref="G24:G27"/>
+    <mergeCell ref="G28:G31"/>
+    <mergeCell ref="D72:D75"/>
+    <mergeCell ref="D76:D79"/>
+    <mergeCell ref="F4:F7"/>
+    <mergeCell ref="F8:F11"/>
+    <mergeCell ref="F12:F15"/>
+    <mergeCell ref="F16:F19"/>
+    <mergeCell ref="F20:F23"/>
+    <mergeCell ref="F24:F27"/>
+    <mergeCell ref="F28:F31"/>
+    <mergeCell ref="F32:F35"/>
+    <mergeCell ref="D48:D51"/>
+    <mergeCell ref="D52:D55"/>
+    <mergeCell ref="D56:D59"/>
+    <mergeCell ref="D60:D63"/>
+    <mergeCell ref="D64:D67"/>
+    <mergeCell ref="D24:D27"/>
+    <mergeCell ref="D28:D31"/>
+    <mergeCell ref="D32:D35"/>
+    <mergeCell ref="D36:D39"/>
+    <mergeCell ref="D40:D43"/>
+    <mergeCell ref="D44:D47"/>
+    <mergeCell ref="D68:D71"/>
+    <mergeCell ref="F60:F63"/>
+    <mergeCell ref="F64:F67"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="B64:B65"/>
+    <mergeCell ref="B66:B67"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="B68:B69"/>
+    <mergeCell ref="B70:B71"/>
+    <mergeCell ref="B72:B73"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="B50:B51"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="B48:B49"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A68:A71"/>
     <mergeCell ref="A72:A75"/>
@@ -4799,278 +5059,19 @@
     <mergeCell ref="B58:B59"/>
     <mergeCell ref="B60:B61"/>
     <mergeCell ref="B62:B63"/>
-    <mergeCell ref="B64:B65"/>
-    <mergeCell ref="B66:B67"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="B68:B69"/>
-    <mergeCell ref="B70:B71"/>
-    <mergeCell ref="B72:B73"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="B50:B51"/>
-    <mergeCell ref="B46:B47"/>
-    <mergeCell ref="B48:B49"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="B44:B45"/>
-    <mergeCell ref="D72:D75"/>
-    <mergeCell ref="D76:D79"/>
-    <mergeCell ref="F4:F7"/>
-    <mergeCell ref="F8:F11"/>
-    <mergeCell ref="F12:F15"/>
-    <mergeCell ref="F16:F19"/>
-    <mergeCell ref="F20:F23"/>
-    <mergeCell ref="F24:F27"/>
-    <mergeCell ref="F28:F31"/>
-    <mergeCell ref="F32:F35"/>
-    <mergeCell ref="D48:D51"/>
-    <mergeCell ref="D52:D55"/>
-    <mergeCell ref="D56:D59"/>
-    <mergeCell ref="D60:D63"/>
-    <mergeCell ref="D64:D67"/>
-    <mergeCell ref="D24:D27"/>
-    <mergeCell ref="D28:D31"/>
-    <mergeCell ref="D32:D35"/>
-    <mergeCell ref="D36:D39"/>
-    <mergeCell ref="D40:D43"/>
-    <mergeCell ref="D44:D47"/>
-    <mergeCell ref="D68:D71"/>
-    <mergeCell ref="F60:F63"/>
-    <mergeCell ref="F64:F67"/>
-    <mergeCell ref="F68:F71"/>
-    <mergeCell ref="F72:F75"/>
-    <mergeCell ref="F76:F79"/>
-    <mergeCell ref="G4:G7"/>
-    <mergeCell ref="G8:G11"/>
-    <mergeCell ref="G12:G15"/>
-    <mergeCell ref="G16:G19"/>
-    <mergeCell ref="G20:G23"/>
-    <mergeCell ref="F36:F39"/>
-    <mergeCell ref="F40:F43"/>
-    <mergeCell ref="F44:F47"/>
-    <mergeCell ref="F48:F51"/>
-    <mergeCell ref="F52:F55"/>
-    <mergeCell ref="F56:F59"/>
-    <mergeCell ref="G72:G75"/>
-    <mergeCell ref="G76:G79"/>
-    <mergeCell ref="G68:G71"/>
-    <mergeCell ref="G48:G51"/>
-    <mergeCell ref="G52:G55"/>
-    <mergeCell ref="G56:G59"/>
-    <mergeCell ref="G60:G63"/>
-    <mergeCell ref="G64:G67"/>
-    <mergeCell ref="G24:G27"/>
-    <mergeCell ref="G28:G31"/>
-    <mergeCell ref="G32:G35"/>
-    <mergeCell ref="G36:G39"/>
-    <mergeCell ref="G40:G43"/>
-    <mergeCell ref="G44:G47"/>
-    <mergeCell ref="H52:H53"/>
-    <mergeCell ref="H38:H39"/>
-    <mergeCell ref="H40:H41"/>
-    <mergeCell ref="H42:H43"/>
-    <mergeCell ref="H44:H45"/>
-    <mergeCell ref="H48:H49"/>
-    <mergeCell ref="H50:H51"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="K8:K9"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="K10:K11"/>
-    <mergeCell ref="I6:I9"/>
-    <mergeCell ref="I10:I13"/>
-    <mergeCell ref="I14:I17"/>
-    <mergeCell ref="I18:I21"/>
-    <mergeCell ref="I22:I25"/>
-    <mergeCell ref="H20:H21"/>
-    <mergeCell ref="H22:H23"/>
-    <mergeCell ref="H16:H17"/>
-    <mergeCell ref="K30:K31"/>
-    <mergeCell ref="K46:K47"/>
-    <mergeCell ref="K20:K21"/>
-    <mergeCell ref="K36:K37"/>
-    <mergeCell ref="K22:K23"/>
-    <mergeCell ref="K38:K39"/>
-    <mergeCell ref="K24:K25"/>
-    <mergeCell ref="K40:K41"/>
-    <mergeCell ref="K52:K53"/>
-    <mergeCell ref="K28:K29"/>
-    <mergeCell ref="N8:N9"/>
-    <mergeCell ref="N10:N11"/>
-    <mergeCell ref="N12:N13"/>
-    <mergeCell ref="N14:N15"/>
-    <mergeCell ref="N16:N17"/>
-    <mergeCell ref="N18:N19"/>
-    <mergeCell ref="H72:H73"/>
-    <mergeCell ref="K72:K73"/>
-    <mergeCell ref="H74:H75"/>
-    <mergeCell ref="K74:K75"/>
-    <mergeCell ref="H66:H67"/>
-    <mergeCell ref="K66:K67"/>
-    <mergeCell ref="H60:H61"/>
-    <mergeCell ref="H62:H63"/>
-    <mergeCell ref="H64:H65"/>
-    <mergeCell ref="H58:H59"/>
-    <mergeCell ref="K48:K49"/>
-    <mergeCell ref="N68:N69"/>
-    <mergeCell ref="N70:N71"/>
-    <mergeCell ref="N72:N73"/>
-    <mergeCell ref="K26:K27"/>
-    <mergeCell ref="K16:K17"/>
-    <mergeCell ref="K56:K57"/>
-    <mergeCell ref="J54:J57"/>
-    <mergeCell ref="N52:N53"/>
-    <mergeCell ref="N54:N55"/>
-    <mergeCell ref="N32:N33"/>
-    <mergeCell ref="N34:N35"/>
-    <mergeCell ref="N36:N37"/>
-    <mergeCell ref="N38:N39"/>
-    <mergeCell ref="N40:N41"/>
-    <mergeCell ref="N42:N43"/>
-    <mergeCell ref="H78:H79"/>
-    <mergeCell ref="K78:K79"/>
-    <mergeCell ref="H76:H77"/>
-    <mergeCell ref="K76:K77"/>
-    <mergeCell ref="K42:K43"/>
-    <mergeCell ref="K44:K45"/>
-    <mergeCell ref="K54:K55"/>
-    <mergeCell ref="J50:J53"/>
-    <mergeCell ref="N78:N79"/>
-    <mergeCell ref="N56:N57"/>
-    <mergeCell ref="N58:N59"/>
-    <mergeCell ref="N60:N61"/>
-    <mergeCell ref="N62:N63"/>
-    <mergeCell ref="N64:N65"/>
-    <mergeCell ref="N66:N67"/>
-    <mergeCell ref="K70:K71"/>
-    <mergeCell ref="H70:H71"/>
-    <mergeCell ref="K68:K69"/>
-    <mergeCell ref="H68:H69"/>
-    <mergeCell ref="K60:K61"/>
-    <mergeCell ref="K62:K63"/>
-    <mergeCell ref="K64:K65"/>
-    <mergeCell ref="K58:K59"/>
-    <mergeCell ref="J58:J61"/>
-    <mergeCell ref="I66:I69"/>
-    <mergeCell ref="I70:I73"/>
-    <mergeCell ref="N74:N75"/>
-    <mergeCell ref="N76:N77"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="H36:H37"/>
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="A16:A19"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="A8:A11"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="H18:H19"/>
-    <mergeCell ref="K18:K19"/>
-    <mergeCell ref="K32:K33"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="K12:K13"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="K14:K15"/>
-    <mergeCell ref="H56:H57"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="N6:N7"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="N44:N45"/>
-    <mergeCell ref="N46:N47"/>
-    <mergeCell ref="N48:N49"/>
-    <mergeCell ref="N50:N51"/>
-    <mergeCell ref="N22:N23"/>
-    <mergeCell ref="N24:N25"/>
-    <mergeCell ref="N26:N27"/>
-    <mergeCell ref="N28:N29"/>
-    <mergeCell ref="N30:N31"/>
-    <mergeCell ref="K34:K35"/>
-    <mergeCell ref="K50:K51"/>
-    <mergeCell ref="H30:H31"/>
-    <mergeCell ref="H32:H33"/>
-    <mergeCell ref="H34:H35"/>
-    <mergeCell ref="H24:H25"/>
-    <mergeCell ref="H26:H27"/>
-    <mergeCell ref="H46:H47"/>
-    <mergeCell ref="H28:H29"/>
-    <mergeCell ref="N20:N21"/>
-    <mergeCell ref="D4:D7"/>
-    <mergeCell ref="D8:D11"/>
-    <mergeCell ref="D12:D15"/>
-    <mergeCell ref="D16:D19"/>
-    <mergeCell ref="D20:D23"/>
-    <mergeCell ref="A1:N1"/>
-    <mergeCell ref="J78:J79"/>
-    <mergeCell ref="J6:J9"/>
-    <mergeCell ref="J10:J13"/>
-    <mergeCell ref="J14:J17"/>
-    <mergeCell ref="J18:J21"/>
-    <mergeCell ref="J22:J25"/>
-    <mergeCell ref="J26:J29"/>
-    <mergeCell ref="J30:J33"/>
-    <mergeCell ref="J34:J37"/>
-    <mergeCell ref="J38:J41"/>
-    <mergeCell ref="J62:J65"/>
-    <mergeCell ref="J66:J69"/>
-    <mergeCell ref="J70:J73"/>
-    <mergeCell ref="J74:J77"/>
-    <mergeCell ref="J42:J45"/>
-    <mergeCell ref="J46:J49"/>
-    <mergeCell ref="H54:H55"/>
-    <mergeCell ref="L22:L25"/>
-    <mergeCell ref="L26:L29"/>
-    <mergeCell ref="L30:L33"/>
-    <mergeCell ref="L34:L37"/>
-    <mergeCell ref="L38:L41"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="L6:L9"/>
-    <mergeCell ref="L10:L13"/>
-    <mergeCell ref="L14:L17"/>
-    <mergeCell ref="L18:L21"/>
-    <mergeCell ref="L62:L65"/>
-    <mergeCell ref="L66:L69"/>
-    <mergeCell ref="L70:L73"/>
-    <mergeCell ref="L74:L77"/>
-    <mergeCell ref="L78:L79"/>
-    <mergeCell ref="L42:L45"/>
-    <mergeCell ref="L46:L49"/>
-    <mergeCell ref="L50:L53"/>
-    <mergeCell ref="L54:L57"/>
-    <mergeCell ref="L58:L61"/>
-    <mergeCell ref="M18:M21"/>
-    <mergeCell ref="M14:M17"/>
-    <mergeCell ref="M10:M13"/>
-    <mergeCell ref="M6:M9"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="M38:M41"/>
-    <mergeCell ref="M34:M37"/>
-    <mergeCell ref="M30:M33"/>
-    <mergeCell ref="M26:M29"/>
-    <mergeCell ref="M22:M25"/>
-    <mergeCell ref="M58:M61"/>
-    <mergeCell ref="M54:M57"/>
-    <mergeCell ref="M50:M53"/>
-    <mergeCell ref="M46:M49"/>
-    <mergeCell ref="M42:M45"/>
-    <mergeCell ref="M78:M79"/>
-    <mergeCell ref="M74:M77"/>
-    <mergeCell ref="M70:M73"/>
-    <mergeCell ref="M66:M69"/>
-    <mergeCell ref="M62:M65"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="I78:I79"/>
+    <mergeCell ref="I30:I33"/>
+    <mergeCell ref="I34:I37"/>
+    <mergeCell ref="I38:I41"/>
+    <mergeCell ref="I42:I45"/>
+    <mergeCell ref="I46:I49"/>
+    <mergeCell ref="I50:I53"/>
+    <mergeCell ref="I54:I57"/>
+    <mergeCell ref="I58:I61"/>
+    <mergeCell ref="I62:I65"/>
+    <mergeCell ref="I26:I29"/>
+    <mergeCell ref="I74:I77"/>
   </mergeCells>
   <conditionalFormatting sqref="J4:J79">
     <cfRule type="cellIs" dxfId="0" priority="5" operator="lessThan">
@@ -5098,7 +5099,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7446A7A3-0CC8-40A6-A895-647545441C7E}">
   <dimension ref="A1:W31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScaleNormal="100" zoomScaleSheetLayoutView="55" workbookViewId="0">
+    <sheetView topLeftCell="A8" zoomScaleNormal="100" zoomScaleSheetLayoutView="55" workbookViewId="0">
       <selection activeCell="T14" sqref="T14"/>
     </sheetView>
   </sheetViews>
@@ -5129,11 +5130,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A1" s="161" t="s">
+      <c r="A1" s="158" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="161"/>
-      <c r="C1" s="161"/>
+      <c r="B1" s="158"/>
+      <c r="C1" s="158"/>
       <c r="D1" s="8">
         <v>6.8352546296296302</v>
       </c>
@@ -5155,30 +5156,30 @@
       <c r="G2" s="6"/>
     </row>
     <row r="3" spans="1:23" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="A3" s="162" t="s">
+      <c r="A3" s="159" t="s">
         <v>59</v>
       </c>
-      <c r="B3" s="162"/>
-      <c r="C3" s="162"/>
-      <c r="D3" s="162"/>
-      <c r="E3" s="162"/>
-      <c r="F3" s="162"/>
-      <c r="G3" s="162"/>
-      <c r="H3" s="162"/>
-      <c r="I3" s="162"/>
-      <c r="J3" s="162"/>
-      <c r="K3" s="162"/>
-      <c r="L3" s="162"/>
-      <c r="M3" s="162"/>
-      <c r="N3" s="162"/>
-      <c r="O3" s="162"/>
-      <c r="P3" s="162"/>
-      <c r="Q3" s="162"/>
-      <c r="R3" s="162"/>
-      <c r="S3" s="162"/>
-      <c r="T3" s="162"/>
-      <c r="U3" s="162"/>
-      <c r="V3" s="162"/>
+      <c r="B3" s="159"/>
+      <c r="C3" s="159"/>
+      <c r="D3" s="159"/>
+      <c r="E3" s="159"/>
+      <c r="F3" s="159"/>
+      <c r="G3" s="159"/>
+      <c r="H3" s="159"/>
+      <c r="I3" s="159"/>
+      <c r="J3" s="159"/>
+      <c r="K3" s="159"/>
+      <c r="L3" s="159"/>
+      <c r="M3" s="159"/>
+      <c r="N3" s="159"/>
+      <c r="O3" s="159"/>
+      <c r="P3" s="159"/>
+      <c r="Q3" s="159"/>
+      <c r="R3" s="159"/>
+      <c r="S3" s="159"/>
+      <c r="T3" s="159"/>
+      <c r="U3" s="159"/>
+      <c r="V3" s="159"/>
     </row>
     <row r="4" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="1.35">
       <c r="A4" s="11"/>
@@ -5205,73 +5206,73 @@
       <c r="V4" s="11"/>
     </row>
     <row r="5" spans="1:23" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="163" t="s">
+      <c r="A5" s="160" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="163" t="s">
+      <c r="B5" s="160" t="s">
         <v>179</v>
       </c>
-      <c r="C5" s="163" t="s">
+      <c r="C5" s="160" t="s">
         <v>32</v>
       </c>
-      <c r="D5" s="160" t="s">
+      <c r="D5" s="161" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="164" t="s">
+      <c r="E5" s="162" t="s">
         <v>34</v>
       </c>
-      <c r="F5" s="160" t="s">
+      <c r="F5" s="161" t="s">
         <v>35</v>
       </c>
-      <c r="G5" s="160" t="s">
+      <c r="G5" s="161" t="s">
         <v>36</v>
       </c>
-      <c r="H5" s="160"/>
-      <c r="I5" s="160" t="s">
+      <c r="H5" s="161"/>
+      <c r="I5" s="161" t="s">
         <v>58</v>
       </c>
-      <c r="J5" s="165" t="s">
+      <c r="J5" s="163" t="s">
         <v>57</v>
       </c>
-      <c r="K5" s="165"/>
-      <c r="L5" s="165"/>
-      <c r="M5" s="160" t="s">
+      <c r="K5" s="163"/>
+      <c r="L5" s="163"/>
+      <c r="M5" s="161" t="s">
         <v>37</v>
       </c>
-      <c r="N5" s="160"/>
-      <c r="O5" s="160" t="s">
+      <c r="N5" s="161"/>
+      <c r="O5" s="161" t="s">
         <v>34</v>
       </c>
-      <c r="P5" s="160"/>
-      <c r="Q5" s="160" t="s">
+      <c r="P5" s="161"/>
+      <c r="Q5" s="161" t="s">
         <v>38</v>
       </c>
-      <c r="R5" s="160"/>
-      <c r="S5" s="160" t="s">
+      <c r="R5" s="161"/>
+      <c r="S5" s="161" t="s">
         <v>39</v>
       </c>
-      <c r="T5" s="160"/>
-      <c r="U5" s="160" t="s">
+      <c r="T5" s="161"/>
+      <c r="U5" s="161" t="s">
         <v>40</v>
       </c>
-      <c r="V5" s="160" t="s">
+      <c r="V5" s="161" t="s">
         <v>41</v>
       </c>
       <c r="W5" s="1"/>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A6" s="163"/>
-      <c r="B6" s="163"/>
-      <c r="C6" s="163"/>
-      <c r="D6" s="160"/>
-      <c r="E6" s="164"/>
-      <c r="F6" s="160"/>
-      <c r="G6" s="160"/>
-      <c r="H6" s="160"/>
-      <c r="I6" s="160"/>
-      <c r="J6" s="165"/>
-      <c r="K6" s="165"/>
-      <c r="L6" s="165"/>
+      <c r="A6" s="160"/>
+      <c r="B6" s="160"/>
+      <c r="C6" s="160"/>
+      <c r="D6" s="161"/>
+      <c r="E6" s="162"/>
+      <c r="F6" s="161"/>
+      <c r="G6" s="161"/>
+      <c r="H6" s="161"/>
+      <c r="I6" s="161"/>
+      <c r="J6" s="163"/>
+      <c r="K6" s="163"/>
+      <c r="L6" s="163"/>
       <c r="M6" s="111" t="s">
         <v>42</v>
       </c>
@@ -5296,8 +5297,8 @@
       <c r="T6" s="114" t="s">
         <v>46</v>
       </c>
-      <c r="U6" s="160"/>
-      <c r="V6" s="160"/>
+      <c r="U6" s="161"/>
+      <c r="V6" s="161"/>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" s="32"/>
@@ -7047,11 +7048,11 @@
       </c>
       <c r="L29" s="2"/>
       <c r="M29"/>
-      <c r="N29" s="158" t="s">
+      <c r="N29" s="164" t="s">
         <v>180</v>
       </c>
-      <c r="O29" s="159"/>
-      <c r="P29" s="159"/>
+      <c r="O29" s="165"/>
+      <c r="P29" s="165"/>
       <c r="Q29" s="128">
         <f>F29/U27</f>
         <v>8.8956480776947693E-5</v>
@@ -7066,6 +7067,11 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="N29:P29"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="S5:T5"/>
+    <mergeCell ref="U5:U6"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A3:V3"/>
     <mergeCell ref="A5:A6"/>
@@ -7079,11 +7085,6 @@
     <mergeCell ref="V5:V6"/>
     <mergeCell ref="J5:L6"/>
     <mergeCell ref="M5:N5"/>
-    <mergeCell ref="N29:P29"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="Q5:R5"/>
-    <mergeCell ref="S5:T5"/>
-    <mergeCell ref="U5:U6"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.94488188976377963" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -7137,11 +7138,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A1" s="161" t="s">
+      <c r="A1" s="158" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="161"/>
-      <c r="C1" s="161"/>
+      <c r="B1" s="158"/>
+      <c r="C1" s="158"/>
       <c r="D1" s="8">
         <v>6.8352546296296302</v>
       </c>
@@ -7165,30 +7166,30 @@
       <c r="M2" s="5"/>
     </row>
     <row r="3" spans="1:22" ht="48.75" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A3" s="162" t="s">
+      <c r="A3" s="159" t="s">
         <v>60</v>
       </c>
-      <c r="B3" s="162"/>
-      <c r="C3" s="162"/>
-      <c r="D3" s="162"/>
-      <c r="E3" s="162"/>
-      <c r="F3" s="162"/>
-      <c r="G3" s="162"/>
-      <c r="H3" s="162"/>
-      <c r="I3" s="162"/>
-      <c r="J3" s="162"/>
-      <c r="K3" s="162"/>
-      <c r="L3" s="162"/>
-      <c r="M3" s="162"/>
-      <c r="N3" s="162"/>
-      <c r="O3" s="162"/>
-      <c r="P3" s="162"/>
-      <c r="Q3" s="162"/>
-      <c r="R3" s="162"/>
-      <c r="S3" s="162"/>
-      <c r="T3" s="162"/>
-      <c r="U3" s="162"/>
-      <c r="V3" s="162"/>
+      <c r="B3" s="159"/>
+      <c r="C3" s="159"/>
+      <c r="D3" s="159"/>
+      <c r="E3" s="159"/>
+      <c r="F3" s="159"/>
+      <c r="G3" s="159"/>
+      <c r="H3" s="159"/>
+      <c r="I3" s="159"/>
+      <c r="J3" s="159"/>
+      <c r="K3" s="159"/>
+      <c r="L3" s="159"/>
+      <c r="M3" s="159"/>
+      <c r="N3" s="159"/>
+      <c r="O3" s="159"/>
+      <c r="P3" s="159"/>
+      <c r="Q3" s="159"/>
+      <c r="R3" s="159"/>
+      <c r="S3" s="159"/>
+      <c r="T3" s="159"/>
+      <c r="U3" s="159"/>
+      <c r="V3" s="159"/>
     </row>
     <row r="4" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="1.35">
       <c r="A4" s="11"/>
@@ -8397,11 +8398,11 @@
       </c>
       <c r="I24" s="10"/>
       <c r="M24" s="5"/>
-      <c r="O24" s="158" t="s">
+      <c r="O24" s="164" t="s">
         <v>180</v>
       </c>
-      <c r="P24" s="159"/>
-      <c r="Q24" s="159"/>
+      <c r="P24" s="165"/>
+      <c r="Q24" s="165"/>
       <c r="R24" s="128">
         <f>H24/U21</f>
         <v>2.3352817614383399E-4</v>
@@ -8527,6 +8528,9 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="O6:P6"/>
     <mergeCell ref="U6:U7"/>
     <mergeCell ref="O24:Q24"/>
     <mergeCell ref="A1:C1"/>
@@ -8543,9 +8547,6 @@
     <mergeCell ref="M6:N6"/>
     <mergeCell ref="Q6:R6"/>
     <mergeCell ref="S6:T6"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="O6:P6"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.99851190476190477" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8569,7 +8570,7 @@
   </sheetPr>
   <dimension ref="A1:AB1055"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="85" zoomScalePageLayoutView="25" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="85" zoomScalePageLayoutView="25" workbookViewId="0">
       <selection activeCell="M21" sqref="M21"/>
     </sheetView>
   </sheetViews>
@@ -8591,67 +8592,67 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:14" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="197" t="s">
+      <c r="B1" s="168" t="s">
         <v>181</v>
       </c>
-      <c r="C1" s="197"/>
-      <c r="D1" s="197"/>
-      <c r="E1" s="197"/>
-      <c r="F1" s="197"/>
-      <c r="G1" s="197"/>
-      <c r="H1" s="197"/>
-      <c r="I1" s="197"/>
-      <c r="J1" s="197"/>
-      <c r="K1" s="197"/>
-      <c r="L1" s="197"/>
-      <c r="M1" s="197"/>
-      <c r="N1" s="197"/>
+      <c r="C1" s="168"/>
+      <c r="D1" s="168"/>
+      <c r="E1" s="168"/>
+      <c r="F1" s="168"/>
+      <c r="G1" s="168"/>
+      <c r="H1" s="168"/>
+      <c r="I1" s="168"/>
+      <c r="J1" s="168"/>
+      <c r="K1" s="168"/>
+      <c r="L1" s="168"/>
+      <c r="M1" s="168"/>
+      <c r="N1" s="168"/>
     </row>
     <row r="2" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="198" t="s">
+      <c r="B2" s="169" t="s">
         <v>175</v>
       </c>
-      <c r="C2" s="198" t="s">
+      <c r="C2" s="169" t="s">
         <v>163</v>
       </c>
-      <c r="D2" s="198" t="s">
+      <c r="D2" s="169" t="s">
         <v>164</v>
       </c>
-      <c r="E2" s="198" t="s">
+      <c r="E2" s="169" t="s">
         <v>176</v>
       </c>
-      <c r="F2" s="198" t="s">
+      <c r="F2" s="169" t="s">
         <v>170</v>
       </c>
-      <c r="G2" s="198" t="s">
+      <c r="G2" s="169" t="s">
         <v>165</v>
       </c>
-      <c r="H2" s="198" t="s">
+      <c r="H2" s="169" t="s">
         <v>166</v>
       </c>
-      <c r="I2" s="168" t="s">
+      <c r="I2" s="171" t="s">
         <v>172</v>
       </c>
-      <c r="J2" s="168"/>
-      <c r="K2" s="168" t="s">
+      <c r="J2" s="171"/>
+      <c r="K2" s="171" t="s">
         <v>171</v>
       </c>
-      <c r="L2" s="168"/>
-      <c r="M2" s="169" t="s">
+      <c r="L2" s="171"/>
+      <c r="M2" s="172" t="s">
         <v>177</v>
       </c>
-      <c r="N2" s="168" t="s">
+      <c r="N2" s="171" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B3" s="199"/>
-      <c r="C3" s="199"/>
-      <c r="D3" s="199"/>
-      <c r="E3" s="199"/>
-      <c r="F3" s="199"/>
-      <c r="G3" s="199"/>
-      <c r="H3" s="199"/>
+      <c r="B3" s="170"/>
+      <c r="C3" s="170"/>
+      <c r="D3" s="170"/>
+      <c r="E3" s="170"/>
+      <c r="F3" s="170"/>
+      <c r="G3" s="170"/>
+      <c r="H3" s="170"/>
       <c r="I3" s="145" t="s">
         <v>42</v>
       </c>
@@ -8664,8 +8665,8 @@
       <c r="L3" s="88" t="s">
         <v>46</v>
       </c>
-      <c r="M3" s="169"/>
-      <c r="N3" s="168"/>
+      <c r="M3" s="172"/>
+      <c r="N3" s="171"/>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B4" s="90" t="s">
@@ -43050,8 +43051,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30E481BD-5099-40E8-B9F8-0B56E429741B}">
   <dimension ref="A1:K51"/>
   <sheetViews>
-    <sheetView topLeftCell="A36" zoomScaleNormal="100" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection sqref="A1:I2"/>
+    <sheetView topLeftCell="A26" zoomScaleNormal="100" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="F44" sqref="F44:H46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -43064,29 +43065,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="170" t="s">
+      <c r="A1" s="173" t="s">
         <v>113</v>
       </c>
-      <c r="B1" s="170"/>
-      <c r="C1" s="170"/>
-      <c r="D1" s="170"/>
-      <c r="E1" s="170"/>
-      <c r="F1" s="170"/>
-      <c r="G1" s="170"/>
-      <c r="H1" s="170"/>
-      <c r="I1" s="170"/>
+      <c r="B1" s="173"/>
+      <c r="C1" s="173"/>
+      <c r="D1" s="173"/>
+      <c r="E1" s="173"/>
+      <c r="F1" s="173"/>
+      <c r="G1" s="173"/>
+      <c r="H1" s="173"/>
+      <c r="I1" s="173"/>
       <c r="J1" s="14"/>
     </row>
     <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="170"/>
-      <c r="B2" s="170"/>
-      <c r="C2" s="170"/>
-      <c r="D2" s="170"/>
-      <c r="E2" s="170"/>
-      <c r="F2" s="170"/>
-      <c r="G2" s="170"/>
-      <c r="H2" s="170"/>
-      <c r="I2" s="170"/>
+      <c r="A2" s="173"/>
+      <c r="B2" s="173"/>
+      <c r="C2" s="173"/>
+      <c r="D2" s="173"/>
+      <c r="E2" s="173"/>
+      <c r="F2" s="173"/>
+      <c r="G2" s="173"/>
+      <c r="H2" s="173"/>
+      <c r="I2" s="173"/>
       <c r="J2" s="14"/>
     </row>
     <row r="4" spans="1:11" s="24" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -44462,45 +44463,45 @@
       </c>
       <c r="C44"/>
       <c r="D44"/>
-      <c r="F44" s="171" t="s">
+      <c r="F44" s="174" t="s">
         <v>146</v>
       </c>
-      <c r="G44" s="158"/>
+      <c r="G44" s="164"/>
       <c r="H44" s="71">
         <f>G41-G5</f>
         <v>-1.4000000000123691E-2</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B45" s="158" t="s">
+      <c r="B45" s="164" t="s">
         <v>143</v>
       </c>
-      <c r="C45" s="159"/>
+      <c r="C45" s="165"/>
       <c r="D45" s="62">
         <f>C42-D42</f>
         <v>-1.3999999999988688E-2</v>
       </c>
-      <c r="F45" s="171" t="s">
+      <c r="F45" s="174" t="s">
         <v>159</v>
       </c>
-      <c r="G45" s="158"/>
+      <c r="G45" s="164"/>
       <c r="H45" s="71" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B46" s="158" t="s">
+      <c r="B46" s="164" t="s">
         <v>144</v>
       </c>
-      <c r="C46" s="159"/>
+      <c r="C46" s="165"/>
       <c r="D46" s="71">
         <f>E42-F42</f>
         <v>-1.3999999999999346E-2</v>
       </c>
-      <c r="F46" s="171" t="s">
+      <c r="F46" s="174" t="s">
         <v>147</v>
       </c>
-      <c r="G46" s="158"/>
+      <c r="G46" s="164"/>
       <c r="H46" s="71">
         <f>24 * SQRT(LEFT(H45,LEN(H45)-2)/1000)/1000</f>
         <v>2.3510079540486457E-2</v>
@@ -44546,8 +44547,8 @@
   </sheetPr>
   <dimension ref="A2:R125"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A81" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="J110" sqref="J110"/>
+    <sheetView topLeftCell="A56" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29:H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -44566,71 +44567,71 @@
   <sheetData>
     <row r="2" spans="1:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="180" t="s">
+      <c r="B3" s="191" t="s">
         <v>64</v>
       </c>
-      <c r="C3" s="180"/>
-      <c r="D3" s="180"/>
-      <c r="E3" s="180"/>
-      <c r="F3" s="180"/>
-      <c r="G3" s="180"/>
-      <c r="H3" s="180"/>
+      <c r="C3" s="191"/>
+      <c r="D3" s="191"/>
+      <c r="E3" s="191"/>
+      <c r="F3" s="191"/>
+      <c r="G3" s="191"/>
+      <c r="H3" s="191"/>
     </row>
     <row r="4" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="180"/>
-      <c r="C4" s="180"/>
-      <c r="D4" s="180"/>
-      <c r="E4" s="180"/>
-      <c r="F4" s="180"/>
-      <c r="G4" s="180"/>
-      <c r="H4" s="180"/>
+      <c r="B4" s="191"/>
+      <c r="C4" s="191"/>
+      <c r="D4" s="191"/>
+      <c r="E4" s="191"/>
+      <c r="F4" s="191"/>
+      <c r="G4" s="191"/>
+      <c r="H4" s="191"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B6" s="191" t="s">
+      <c r="B6" s="190" t="s">
         <v>137</v>
       </c>
-      <c r="C6" s="191"/>
+      <c r="C6" s="190"/>
       <c r="D6" s="20" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="7" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="15"/>
-      <c r="B7" s="173" t="s">
+      <c r="B7" s="198" t="s">
         <v>65</v>
       </c>
-      <c r="C7" s="173"/>
-      <c r="D7" s="173"/>
-      <c r="E7" s="173"/>
-      <c r="F7" s="173"/>
-      <c r="G7" s="173"/>
-      <c r="H7" s="173"/>
+      <c r="C7" s="198"/>
+      <c r="D7" s="198"/>
+      <c r="E7" s="198"/>
+      <c r="F7" s="198"/>
+      <c r="G7" s="198"/>
+      <c r="H7" s="198"/>
       <c r="Q7" s="17"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B8" s="152" t="s">
+      <c r="B8" s="147" t="s">
         <v>66</v>
       </c>
-      <c r="C8" s="152" t="s">
+      <c r="C8" s="147" t="s">
         <v>68</v>
       </c>
-      <c r="D8" s="173" t="s">
+      <c r="D8" s="198" t="s">
         <v>67</v>
       </c>
-      <c r="E8" s="173"/>
-      <c r="F8" s="173"/>
+      <c r="E8" s="198"/>
+      <c r="F8" s="198"/>
       <c r="G8" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="H8" s="174" t="s">
+      <c r="H8" s="199" t="s">
         <v>133</v>
       </c>
-      <c r="J8" s="194"/>
-      <c r="K8" s="194"/>
+      <c r="J8" s="189"/>
+      <c r="K8" s="189"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B9" s="152"/>
-      <c r="C9" s="152"/>
+      <c r="B9" s="147"/>
+      <c r="C9" s="147"/>
       <c r="D9" s="27" t="s">
         <v>70</v>
       </c>
@@ -44641,10 +44642,10 @@
         <v>72</v>
       </c>
       <c r="G9" s="27"/>
-      <c r="H9" s="174"/>
+      <c r="H9" s="199"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B10" s="185" t="s">
+      <c r="B10" s="192" t="s">
         <v>73</v>
       </c>
       <c r="C10" s="27" t="s">
@@ -44663,13 +44664,13 @@
         <f>(D10+E10+F10)/3</f>
         <v>1.1153333333333333</v>
       </c>
-      <c r="H10" s="187">
+      <c r="H10" s="194">
         <f>E11-E10</f>
         <v>5.0000000000000044E-2</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B11" s="186"/>
+      <c r="B11" s="193"/>
       <c r="C11" s="27" t="s">
         <v>76</v>
       </c>
@@ -44686,43 +44687,43 @@
         <f>(D11+E11+F11)/3</f>
         <v>1.1646666666666665</v>
       </c>
-      <c r="H11" s="188"/>
+      <c r="H11" s="195"/>
     </row>
     <row r="13" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="15"/>
-      <c r="B13" s="173" t="s">
+      <c r="B13" s="198" t="s">
         <v>136</v>
       </c>
-      <c r="C13" s="173"/>
-      <c r="D13" s="173"/>
-      <c r="E13" s="173"/>
-      <c r="F13" s="173"/>
-      <c r="G13" s="173"/>
-      <c r="H13" s="173"/>
+      <c r="C13" s="198"/>
+      <c r="D13" s="198"/>
+      <c r="E13" s="198"/>
+      <c r="F13" s="198"/>
+      <c r="G13" s="198"/>
+      <c r="H13" s="198"/>
       <c r="Q13" s="17"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B14" s="152" t="s">
+      <c r="B14" s="147" t="s">
         <v>66</v>
       </c>
-      <c r="C14" s="152" t="s">
+      <c r="C14" s="147" t="s">
         <v>68</v>
       </c>
-      <c r="D14" s="173" t="s">
+      <c r="D14" s="198" t="s">
         <v>67</v>
       </c>
-      <c r="E14" s="173"/>
-      <c r="F14" s="173"/>
+      <c r="E14" s="198"/>
+      <c r="F14" s="198"/>
       <c r="G14" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="H14" s="174" t="s">
+      <c r="H14" s="199" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B15" s="152"/>
-      <c r="C15" s="152"/>
+      <c r="B15" s="147"/>
+      <c r="C15" s="147"/>
       <c r="D15" s="27" t="s">
         <v>70</v>
       </c>
@@ -44733,10 +44734,10 @@
         <v>72</v>
       </c>
       <c r="G15" s="27"/>
-      <c r="H15" s="174"/>
+      <c r="H15" s="199"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B16" s="185" t="s">
+      <c r="B16" s="192" t="s">
         <v>74</v>
       </c>
       <c r="C16" s="27" t="s">
@@ -44755,13 +44756,13 @@
         <f>(D16+E16+F16)/3</f>
         <v>1.147</v>
       </c>
-      <c r="H16" s="189">
+      <c r="H16" s="196">
         <f>E17-E16</f>
         <v>5.600000000000005E-2</v>
       </c>
     </row>
     <row r="17" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B17" s="186"/>
+      <c r="B17" s="193"/>
       <c r="C17" s="27" t="s">
         <v>76</v>
       </c>
@@ -44778,64 +44779,64 @@
         <f>(D17+E17+F17)/3</f>
         <v>1.2030000000000001</v>
       </c>
-      <c r="H17" s="190"/>
+      <c r="H17" s="197"/>
     </row>
     <row r="19" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B19" s="171" t="s">
+      <c r="B19" s="174" t="s">
         <v>134</v>
       </c>
-      <c r="C19" s="171"/>
+      <c r="C19" s="174"/>
       <c r="D19" s="44">
         <f>H16-H10</f>
         <v>6.0000000000000053E-3</v>
       </c>
     </row>
     <row r="20" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B20" s="171" t="s">
+      <c r="B20" s="174" t="s">
         <v>135</v>
       </c>
-      <c r="C20" s="171"/>
+      <c r="C20" s="174"/>
       <c r="D20" s="44">
         <f>32/D19</f>
         <v>5333.3333333333285</v>
       </c>
     </row>
     <row r="26" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B26" s="170" t="s">
+      <c r="B26" s="173" t="s">
         <v>77</v>
       </c>
-      <c r="C26" s="170"/>
-      <c r="D26" s="170"/>
-      <c r="E26" s="170"/>
-      <c r="F26" s="170"/>
-      <c r="G26" s="170"/>
-      <c r="H26" s="170"/>
-      <c r="I26" s="170"/>
-      <c r="J26" s="170"/>
-      <c r="K26" s="170"/>
-      <c r="L26" s="170"/>
-      <c r="M26" s="170"/>
-      <c r="N26" s="170"/>
-      <c r="O26" s="170"/>
-      <c r="P26" s="170"/>
+      <c r="C26" s="173"/>
+      <c r="D26" s="173"/>
+      <c r="E26" s="173"/>
+      <c r="F26" s="173"/>
+      <c r="G26" s="173"/>
+      <c r="H26" s="173"/>
+      <c r="I26" s="173"/>
+      <c r="J26" s="173"/>
+      <c r="K26" s="173"/>
+      <c r="L26" s="173"/>
+      <c r="M26" s="173"/>
+      <c r="N26" s="173"/>
+      <c r="O26" s="173"/>
+      <c r="P26" s="173"/>
       <c r="Q26" s="72"/>
     </row>
     <row r="27" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B27" s="170"/>
-      <c r="C27" s="170"/>
-      <c r="D27" s="170"/>
-      <c r="E27" s="170"/>
-      <c r="F27" s="170"/>
-      <c r="G27" s="170"/>
-      <c r="H27" s="170"/>
-      <c r="I27" s="170"/>
-      <c r="J27" s="170"/>
-      <c r="K27" s="170"/>
-      <c r="L27" s="170"/>
-      <c r="M27" s="170"/>
-      <c r="N27" s="170"/>
-      <c r="O27" s="170"/>
-      <c r="P27" s="170"/>
+      <c r="B27" s="173"/>
+      <c r="C27" s="173"/>
+      <c r="D27" s="173"/>
+      <c r="E27" s="173"/>
+      <c r="F27" s="173"/>
+      <c r="G27" s="173"/>
+      <c r="H27" s="173"/>
+      <c r="I27" s="173"/>
+      <c r="J27" s="173"/>
+      <c r="K27" s="173"/>
+      <c r="L27" s="173"/>
+      <c r="M27" s="173"/>
+      <c r="N27" s="173"/>
+      <c r="O27" s="173"/>
+      <c r="P27" s="173"/>
       <c r="Q27" s="72"/>
     </row>
     <row r="28" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -44866,47 +44867,47 @@
       <c r="Q29" s="50"/>
     </row>
     <row r="30" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="181" t="s">
+      <c r="B30" s="175" t="s">
         <v>78</v>
       </c>
-      <c r="C30" s="175" t="s">
+      <c r="C30" s="176" t="s">
         <v>79</v>
       </c>
-      <c r="D30" s="175"/>
-      <c r="E30" s="175"/>
-      <c r="F30" s="181" t="s">
+      <c r="D30" s="176"/>
+      <c r="E30" s="176"/>
+      <c r="F30" s="175" t="s">
         <v>80</v>
       </c>
-      <c r="G30" s="175" t="s">
+      <c r="G30" s="176" t="s">
         <v>139</v>
       </c>
-      <c r="H30" s="175" t="s">
+      <c r="H30" s="176" t="s">
         <v>81</v>
       </c>
-      <c r="I30" s="175"/>
-      <c r="J30" s="175"/>
-      <c r="K30" s="181" t="s">
+      <c r="I30" s="176"/>
+      <c r="J30" s="176"/>
+      <c r="K30" s="175" t="s">
         <v>82</v>
       </c>
-      <c r="L30" s="175" t="s">
+      <c r="L30" s="176" t="s">
         <v>140</v>
       </c>
-      <c r="M30" s="175" t="s">
+      <c r="M30" s="176" t="s">
         <v>83</v>
       </c>
-      <c r="N30" s="175" t="s">
+      <c r="N30" s="176" t="s">
         <v>84</v>
       </c>
-      <c r="O30" s="181" t="s">
+      <c r="O30" s="175" t="s">
         <v>86</v>
       </c>
-      <c r="P30" s="195" t="s">
+      <c r="P30" s="177" t="s">
         <v>87</v>
       </c>
       <c r="Q30"/>
     </row>
     <row r="31" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B31" s="181"/>
+      <c r="B31" s="175"/>
       <c r="C31" s="55" t="s">
         <v>70</v>
       </c>
@@ -44916,8 +44917,8 @@
       <c r="E31" s="55" t="s">
         <v>72</v>
       </c>
-      <c r="F31" s="175"/>
-      <c r="G31" s="175"/>
+      <c r="F31" s="176"/>
+      <c r="G31" s="176"/>
       <c r="H31" s="55" t="s">
         <v>70</v>
       </c>
@@ -44927,12 +44928,12 @@
       <c r="J31" s="55" t="s">
         <v>72</v>
       </c>
-      <c r="K31" s="175"/>
-      <c r="L31" s="175"/>
-      <c r="M31" s="175"/>
-      <c r="N31" s="175"/>
-      <c r="O31" s="175"/>
-      <c r="P31" s="196"/>
+      <c r="K31" s="176"/>
+      <c r="L31" s="176"/>
+      <c r="M31" s="176"/>
+      <c r="N31" s="176"/>
+      <c r="O31" s="176"/>
+      <c r="P31" s="178"/>
       <c r="Q31"/>
     </row>
     <row r="32" spans="2:17" x14ac:dyDescent="0.25">
@@ -44956,13 +44957,13 @@
         <f>C32-E32</f>
         <v>0.14000000000000001</v>
       </c>
-      <c r="H32" s="176"/>
-      <c r="I32" s="177"/>
-      <c r="J32" s="177"/>
-      <c r="K32" s="177"/>
-      <c r="L32" s="177"/>
-      <c r="M32" s="177"/>
-      <c r="N32" s="178"/>
+      <c r="H32" s="183"/>
+      <c r="I32" s="184"/>
+      <c r="J32" s="184"/>
+      <c r="K32" s="184"/>
+      <c r="L32" s="184"/>
+      <c r="M32" s="184"/>
+      <c r="N32" s="185"/>
       <c r="O32" s="52">
         <f t="shared" ref="O32:O49" si="0">S1_+S2_</f>
         <v>0.14000000000000001</v>
@@ -45873,11 +45874,11 @@
       <c r="B49" s="56" t="s">
         <v>105</v>
       </c>
-      <c r="C49" s="176"/>
-      <c r="D49" s="177"/>
-      <c r="E49" s="177"/>
-      <c r="F49" s="177"/>
-      <c r="G49" s="178"/>
+      <c r="C49" s="183"/>
+      <c r="D49" s="184"/>
+      <c r="E49" s="184"/>
+      <c r="F49" s="184"/>
+      <c r="G49" s="185"/>
       <c r="H49" s="52">
         <v>0.86499999999999999</v>
       </c>
@@ -45961,10 +45962,10 @@
       <c r="N51" s="18"/>
     </row>
     <row r="52" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="C52" s="172" t="s">
+      <c r="C52" s="180" t="s">
         <v>158</v>
       </c>
-      <c r="D52" s="172"/>
+      <c r="D52" s="180"/>
       <c r="F52" s="18"/>
       <c r="G52" s="13"/>
       <c r="H52" s="13"/>
@@ -45975,10 +45976,10 @@
       <c r="N52" s="18"/>
     </row>
     <row r="53" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="C53" s="158" t="s">
+      <c r="C53" s="164" t="s">
         <v>143</v>
       </c>
-      <c r="D53" s="159"/>
+      <c r="D53" s="165"/>
       <c r="E53" s="71">
         <f>F50-K50</f>
         <v>2.075333333333333</v>
@@ -45993,10 +45994,10 @@
       <c r="N53" s="18"/>
     </row>
     <row r="54" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="C54" s="158" t="s">
+      <c r="C54" s="164" t="s">
         <v>144</v>
       </c>
-      <c r="D54" s="159"/>
+      <c r="D54" s="165"/>
       <c r="E54" s="71">
         <f>M50-N50</f>
         <v>2.0753333333333326</v>
@@ -46031,47 +46032,47 @@
       <c r="Q55" s="50"/>
     </row>
     <row r="56" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="181" t="s">
+      <c r="B56" s="175" t="s">
         <v>78</v>
       </c>
-      <c r="C56" s="182" t="s">
+      <c r="C56" s="186" t="s">
         <v>79</v>
       </c>
-      <c r="D56" s="183"/>
-      <c r="E56" s="184"/>
-      <c r="F56" s="181" t="s">
+      <c r="D56" s="187"/>
+      <c r="E56" s="188"/>
+      <c r="F56" s="175" t="s">
         <v>80</v>
       </c>
-      <c r="G56" s="175" t="s">
+      <c r="G56" s="176" t="s">
         <v>106</v>
       </c>
-      <c r="H56" s="175" t="s">
+      <c r="H56" s="176" t="s">
         <v>81</v>
       </c>
-      <c r="I56" s="175"/>
-      <c r="J56" s="175"/>
-      <c r="K56" s="181" t="s">
+      <c r="I56" s="176"/>
+      <c r="J56" s="176"/>
+      <c r="K56" s="175" t="s">
         <v>82</v>
       </c>
-      <c r="L56" s="175" t="s">
+      <c r="L56" s="176" t="s">
         <v>107</v>
       </c>
-      <c r="M56" s="175" t="s">
+      <c r="M56" s="176" t="s">
         <v>83</v>
       </c>
-      <c r="N56" s="175" t="s">
+      <c r="N56" s="176" t="s">
         <v>84</v>
       </c>
-      <c r="O56" s="181" t="s">
+      <c r="O56" s="175" t="s">
         <v>86</v>
       </c>
-      <c r="P56" s="195" t="s">
+      <c r="P56" s="177" t="s">
         <v>157</v>
       </c>
       <c r="Q56"/>
     </row>
     <row r="57" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B57" s="181"/>
+      <c r="B57" s="175"/>
       <c r="C57" s="55" t="s">
         <v>70</v>
       </c>
@@ -46081,8 +46082,8 @@
       <c r="E57" s="55" t="s">
         <v>72</v>
       </c>
-      <c r="F57" s="175"/>
-      <c r="G57" s="175"/>
+      <c r="F57" s="176"/>
+      <c r="G57" s="176"/>
       <c r="H57" s="55" t="s">
         <v>70</v>
       </c>
@@ -46092,12 +46093,12 @@
       <c r="J57" s="55" t="s">
         <v>72</v>
       </c>
-      <c r="K57" s="175"/>
-      <c r="L57" s="175"/>
-      <c r="M57" s="175"/>
-      <c r="N57" s="175"/>
-      <c r="O57" s="175"/>
-      <c r="P57" s="195"/>
+      <c r="K57" s="176"/>
+      <c r="L57" s="176"/>
+      <c r="M57" s="176"/>
+      <c r="N57" s="176"/>
+      <c r="O57" s="176"/>
+      <c r="P57" s="177"/>
       <c r="Q57"/>
     </row>
     <row r="58" spans="2:17" x14ac:dyDescent="0.25">
@@ -46121,13 +46122,13 @@
         <f t="shared" ref="G58:G78" si="9">C58-E58</f>
         <v>0.14600000000000002</v>
       </c>
-      <c r="H58" s="176"/>
-      <c r="I58" s="177"/>
-      <c r="J58" s="177"/>
-      <c r="K58" s="177"/>
-      <c r="L58" s="177"/>
-      <c r="M58" s="177"/>
-      <c r="N58" s="178"/>
+      <c r="H58" s="183"/>
+      <c r="I58" s="184"/>
+      <c r="J58" s="184"/>
+      <c r="K58" s="184"/>
+      <c r="L58" s="184"/>
+      <c r="M58" s="184"/>
+      <c r="N58" s="185"/>
       <c r="O58" s="52">
         <f t="shared" ref="O58:O79" si="10">(G58+L58)</f>
         <v>0.14600000000000002</v>
@@ -47262,11 +47263,11 @@
       <c r="B79" s="56" t="s">
         <v>88</v>
       </c>
-      <c r="C79" s="176"/>
-      <c r="D79" s="177"/>
-      <c r="E79" s="177"/>
-      <c r="F79" s="177"/>
-      <c r="G79" s="178"/>
+      <c r="C79" s="183"/>
+      <c r="D79" s="184"/>
+      <c r="E79" s="184"/>
+      <c r="F79" s="184"/>
+      <c r="G79" s="185"/>
       <c r="H79" s="52">
         <v>0.75800000000000001</v>
       </c>
@@ -47349,25 +47350,25 @@
       <c r="P81" s="2"/>
     </row>
     <row r="82" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="C82" s="172" t="s">
+      <c r="C82" s="180" t="s">
         <v>158</v>
       </c>
-      <c r="D82" s="172"/>
+      <c r="D82" s="180"/>
       <c r="F82" s="18"/>
-      <c r="G82" s="158" t="s">
+      <c r="G82" s="164" t="s">
         <v>145</v>
       </c>
-      <c r="H82" s="159"/>
-      <c r="I82" s="159"/>
+      <c r="H82" s="165"/>
+      <c r="I82" s="165"/>
       <c r="J82" s="71">
         <f>(E53-E83)/2</f>
         <v>2.0795000000000012</v>
       </c>
       <c r="K82" s="13"/>
-      <c r="L82" s="192" t="s">
+      <c r="L82" s="181" t="s">
         <v>148</v>
       </c>
-      <c r="M82" s="193"/>
+      <c r="M82" s="182"/>
       <c r="N82" s="61" t="s">
         <v>150</v>
       </c>
@@ -47377,20 +47378,20 @@
       </c>
     </row>
     <row r="83" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="C83" s="158" t="s">
+      <c r="C83" s="164" t="s">
         <v>143</v>
       </c>
-      <c r="D83" s="159"/>
+      <c r="D83" s="165"/>
       <c r="E83" s="62">
         <f>F80-K80</f>
         <v>-2.0836666666666694</v>
       </c>
       <c r="F83" s="18"/>
-      <c r="G83" s="158" t="s">
+      <c r="G83" s="164" t="s">
         <v>146</v>
       </c>
-      <c r="H83" s="159"/>
-      <c r="I83" s="159"/>
+      <c r="H83" s="165"/>
+      <c r="I83" s="165"/>
       <c r="J83" s="71">
         <f>ABS(E54+E84)</f>
         <v>8.3333333333337478E-3</v>
@@ -47409,19 +47410,19 @@
       </c>
     </row>
     <row r="84" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="C84" s="158" t="s">
+      <c r="C84" s="164" t="s">
         <v>144</v>
       </c>
-      <c r="D84" s="159"/>
+      <c r="D84" s="165"/>
       <c r="E84" s="71">
         <f>M80-N80</f>
         <v>-2.0836666666666663</v>
       </c>
-      <c r="G84" s="171" t="s">
+      <c r="G84" s="174" t="s">
         <v>147</v>
       </c>
-      <c r="H84" s="171"/>
-      <c r="I84" s="158"/>
+      <c r="H84" s="174"/>
+      <c r="I84" s="164"/>
       <c r="J84" s="71">
         <f>(24*SQRT((P50+P80)/1000))/1000</f>
         <v>2.5181707646623169E-2</v>
@@ -47458,47 +47459,47 @@
       <c r="P85" s="49"/>
     </row>
     <row r="86" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B86" s="181" t="s">
+      <c r="B86" s="175" t="s">
         <v>78</v>
       </c>
-      <c r="C86" s="182" t="s">
+      <c r="C86" s="186" t="s">
         <v>79</v>
       </c>
-      <c r="D86" s="183"/>
-      <c r="E86" s="184"/>
-      <c r="F86" s="181" t="s">
+      <c r="D86" s="187"/>
+      <c r="E86" s="188"/>
+      <c r="F86" s="175" t="s">
         <v>80</v>
       </c>
-      <c r="G86" s="175" t="s">
+      <c r="G86" s="176" t="s">
         <v>106</v>
       </c>
-      <c r="H86" s="175" t="s">
+      <c r="H86" s="176" t="s">
         <v>81</v>
       </c>
-      <c r="I86" s="175"/>
-      <c r="J86" s="175"/>
-      <c r="K86" s="181" t="s">
+      <c r="I86" s="176"/>
+      <c r="J86" s="176"/>
+      <c r="K86" s="175" t="s">
         <v>82</v>
       </c>
-      <c r="L86" s="175" t="s">
+      <c r="L86" s="176" t="s">
         <v>107</v>
       </c>
-      <c r="M86" s="175" t="s">
+      <c r="M86" s="176" t="s">
         <v>83</v>
       </c>
-      <c r="N86" s="175" t="s">
+      <c r="N86" s="176" t="s">
         <v>84</v>
       </c>
-      <c r="O86" s="181" t="s">
+      <c r="O86" s="175" t="s">
         <v>86</v>
       </c>
-      <c r="P86" s="195" t="s">
+      <c r="P86" s="177" t="s">
         <v>87</v>
       </c>
       <c r="Q86"/>
     </row>
     <row r="87" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B87" s="181"/>
+      <c r="B87" s="175"/>
       <c r="C87" s="55" t="s">
         <v>70</v>
       </c>
@@ -47508,8 +47509,8 @@
       <c r="E87" s="55" t="s">
         <v>72</v>
       </c>
-      <c r="F87" s="175"/>
-      <c r="G87" s="175"/>
+      <c r="F87" s="176"/>
+      <c r="G87" s="176"/>
       <c r="H87" s="55" t="s">
         <v>70</v>
       </c>
@@ -47519,12 +47520,12 @@
       <c r="J87" s="55" t="s">
         <v>72</v>
       </c>
-      <c r="K87" s="175"/>
-      <c r="L87" s="175"/>
-      <c r="M87" s="175"/>
-      <c r="N87" s="175"/>
-      <c r="O87" s="175"/>
-      <c r="P87" s="196"/>
+      <c r="K87" s="176"/>
+      <c r="L87" s="176"/>
+      <c r="M87" s="176"/>
+      <c r="N87" s="176"/>
+      <c r="O87" s="176"/>
+      <c r="P87" s="178"/>
       <c r="Q87"/>
     </row>
     <row r="88" spans="2:17" x14ac:dyDescent="0.25">
@@ -47548,13 +47549,13 @@
         <f t="shared" ref="G88:G94" si="17">C88-E88</f>
         <v>0.14600000000000002</v>
       </c>
-      <c r="H88" s="176"/>
-      <c r="I88" s="177"/>
-      <c r="J88" s="177"/>
-      <c r="K88" s="177"/>
-      <c r="L88" s="177"/>
-      <c r="M88" s="177"/>
-      <c r="N88" s="178"/>
+      <c r="H88" s="183"/>
+      <c r="I88" s="184"/>
+      <c r="J88" s="184"/>
+      <c r="K88" s="184"/>
+      <c r="L88" s="184"/>
+      <c r="M88" s="184"/>
+      <c r="N88" s="185"/>
       <c r="O88" s="52">
         <f t="shared" ref="O88:O95" si="18">(G88+L88)</f>
         <v>0.14600000000000002</v>
@@ -47905,11 +47906,11 @@
       <c r="B95" s="56" t="s">
         <v>15</v>
       </c>
-      <c r="C95" s="176"/>
-      <c r="D95" s="177"/>
-      <c r="E95" s="177"/>
-      <c r="F95" s="177"/>
-      <c r="G95" s="178"/>
+      <c r="C95" s="183"/>
+      <c r="D95" s="184"/>
+      <c r="E95" s="184"/>
+      <c r="F95" s="184"/>
+      <c r="G95" s="185"/>
       <c r="H95" s="52">
         <v>1.3120000000000001</v>
       </c>
@@ -47995,10 +47996,10 @@
       <c r="P97" s="2"/>
     </row>
     <row r="98" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="C98" s="172" t="s">
+      <c r="C98" s="180" t="s">
         <v>158</v>
       </c>
-      <c r="D98" s="172"/>
+      <c r="D98" s="180"/>
       <c r="F98" s="60"/>
       <c r="G98" s="73"/>
       <c r="H98" s="73"/>
@@ -48011,10 +48012,10 @@
       <c r="P98" s="2"/>
     </row>
     <row r="99" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="C99" s="158" t="s">
+      <c r="C99" s="164" t="s">
         <v>143</v>
       </c>
-      <c r="D99" s="159"/>
+      <c r="D99" s="165"/>
       <c r="E99" s="71">
         <f>F96-K96</f>
         <v>-1.9890000000000025</v>
@@ -48031,10 +48032,10 @@
       <c r="P99" s="2"/>
     </row>
     <row r="100" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="C100" s="158" t="s">
+      <c r="C100" s="164" t="s">
         <v>144</v>
       </c>
-      <c r="D100" s="159"/>
+      <c r="D100" s="165"/>
       <c r="E100" s="71">
         <f>M96-N96</f>
         <v>-1.9890000000000003</v>
@@ -48082,47 +48083,47 @@
       <c r="P103" s="49"/>
     </row>
     <row r="104" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B104" s="181" t="s">
+      <c r="B104" s="175" t="s">
         <v>78</v>
       </c>
-      <c r="C104" s="182" t="s">
+      <c r="C104" s="186" t="s">
         <v>79</v>
       </c>
-      <c r="D104" s="183"/>
-      <c r="E104" s="184"/>
-      <c r="F104" s="181" t="s">
+      <c r="D104" s="187"/>
+      <c r="E104" s="188"/>
+      <c r="F104" s="175" t="s">
         <v>80</v>
       </c>
-      <c r="G104" s="175" t="s">
+      <c r="G104" s="176" t="s">
         <v>106</v>
       </c>
-      <c r="H104" s="175" t="s">
+      <c r="H104" s="176" t="s">
         <v>81</v>
       </c>
-      <c r="I104" s="175"/>
-      <c r="J104" s="175"/>
-      <c r="K104" s="181" t="s">
+      <c r="I104" s="176"/>
+      <c r="J104" s="176"/>
+      <c r="K104" s="175" t="s">
         <v>82</v>
       </c>
-      <c r="L104" s="175" t="s">
+      <c r="L104" s="176" t="s">
         <v>107</v>
       </c>
-      <c r="M104" s="175" t="s">
+      <c r="M104" s="176" t="s">
         <v>83</v>
       </c>
-      <c r="N104" s="175" t="s">
+      <c r="N104" s="176" t="s">
         <v>84</v>
       </c>
-      <c r="O104" s="181" t="s">
+      <c r="O104" s="175" t="s">
         <v>86</v>
       </c>
-      <c r="P104" s="195" t="s">
+      <c r="P104" s="177" t="s">
         <v>87</v>
       </c>
       <c r="Q104"/>
     </row>
     <row r="105" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B105" s="181"/>
+      <c r="B105" s="175"/>
       <c r="C105" s="55" t="s">
         <v>70</v>
       </c>
@@ -48132,8 +48133,8 @@
       <c r="E105" s="55" t="s">
         <v>72</v>
       </c>
-      <c r="F105" s="175"/>
-      <c r="G105" s="175"/>
+      <c r="F105" s="176"/>
+      <c r="G105" s="176"/>
       <c r="H105" s="55" t="s">
         <v>70</v>
       </c>
@@ -48143,12 +48144,12 @@
       <c r="J105" s="55" t="s">
         <v>72</v>
       </c>
-      <c r="K105" s="175"/>
-      <c r="L105" s="175"/>
-      <c r="M105" s="175"/>
-      <c r="N105" s="175"/>
-      <c r="O105" s="175"/>
-      <c r="P105" s="196"/>
+      <c r="K105" s="176"/>
+      <c r="L105" s="176"/>
+      <c r="M105" s="176"/>
+      <c r="N105" s="176"/>
+      <c r="O105" s="176"/>
+      <c r="P105" s="178"/>
       <c r="Q105"/>
     </row>
     <row r="106" spans="2:17" x14ac:dyDescent="0.25">
@@ -48172,13 +48173,13 @@
         <f t="shared" ref="G106:G113" si="25">C106-E106</f>
         <v>0.15199999999999991</v>
       </c>
-      <c r="H106" s="176"/>
-      <c r="I106" s="177"/>
-      <c r="J106" s="177"/>
-      <c r="K106" s="177"/>
-      <c r="L106" s="177"/>
-      <c r="M106" s="177"/>
-      <c r="N106" s="178"/>
+      <c r="H106" s="183"/>
+      <c r="I106" s="184"/>
+      <c r="J106" s="184"/>
+      <c r="K106" s="184"/>
+      <c r="L106" s="184"/>
+      <c r="M106" s="184"/>
+      <c r="N106" s="185"/>
       <c r="O106" s="52">
         <f t="shared" ref="O106:O114" si="26">(G106+L106)</f>
         <v>0.15199999999999991</v>
@@ -48585,11 +48586,11 @@
       <c r="B114" s="56" t="s">
         <v>105</v>
       </c>
-      <c r="C114" s="176"/>
-      <c r="D114" s="177"/>
-      <c r="E114" s="177"/>
-      <c r="F114" s="177"/>
-      <c r="G114" s="178"/>
+      <c r="C114" s="183"/>
+      <c r="D114" s="184"/>
+      <c r="E114" s="184"/>
+      <c r="F114" s="184"/>
+      <c r="G114" s="185"/>
       <c r="H114" s="52">
         <v>0.81200000000000006</v>
       </c>
@@ -48665,25 +48666,25 @@
     <row r="117" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A117" s="21"/>
       <c r="B117" s="21"/>
-      <c r="C117" s="172" t="s">
+      <c r="C117" s="180" t="s">
         <v>158</v>
       </c>
-      <c r="D117" s="172"/>
+      <c r="D117" s="180"/>
       <c r="F117" s="18"/>
-      <c r="G117" s="158" t="s">
+      <c r="G117" s="164" t="s">
         <v>145</v>
       </c>
-      <c r="H117" s="159"/>
-      <c r="I117" s="159"/>
+      <c r="H117" s="165"/>
+      <c r="I117" s="165"/>
       <c r="J117" s="71">
         <f>(E99-E118)/2</f>
         <v>-1.9926666666666693</v>
       </c>
       <c r="K117" s="13"/>
-      <c r="L117" s="192" t="s">
+      <c r="L117" s="181" t="s">
         <v>155</v>
       </c>
-      <c r="M117" s="193"/>
+      <c r="M117" s="182"/>
       <c r="N117" s="61" t="s">
         <v>156</v>
       </c>
@@ -48698,20 +48699,20 @@
     <row r="118" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A118" s="21"/>
       <c r="B118" s="21"/>
-      <c r="C118" s="158" t="s">
+      <c r="C118" s="164" t="s">
         <v>143</v>
       </c>
-      <c r="D118" s="159"/>
+      <c r="D118" s="165"/>
       <c r="E118" s="62">
         <f>F115-K115</f>
         <v>1.996333333333336</v>
       </c>
       <c r="F118" s="18"/>
-      <c r="G118" s="158" t="s">
+      <c r="G118" s="164" t="s">
         <v>146</v>
       </c>
-      <c r="H118" s="159"/>
-      <c r="I118" s="159"/>
+      <c r="H118" s="165"/>
+      <c r="I118" s="165"/>
       <c r="J118" s="71">
         <f>ABS(E99+E118)</f>
         <v>7.3333333333334139E-3</v>
@@ -48736,19 +48737,19 @@
     <row r="119" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A119" s="21"/>
       <c r="B119" s="21"/>
-      <c r="C119" s="158" t="s">
+      <c r="C119" s="164" t="s">
         <v>144</v>
       </c>
-      <c r="D119" s="159"/>
+      <c r="D119" s="165"/>
       <c r="E119" s="71">
         <f>M115-N115</f>
         <v>1.9963333333333335</v>
       </c>
-      <c r="G119" s="171" t="s">
+      <c r="G119" s="174" t="s">
         <v>147</v>
       </c>
-      <c r="H119" s="171"/>
-      <c r="I119" s="158"/>
+      <c r="H119" s="174"/>
+      <c r="I119" s="164"/>
       <c r="J119" s="71">
         <f>(24*SQRT((P96+P115)/1000))/1000</f>
         <v>1.4961069480488351E-2</v>
@@ -48883,13 +48884,79 @@
     </row>
   </sheetData>
   <mergeCells count="96">
-    <mergeCell ref="O86:O87"/>
-    <mergeCell ref="P86:P87"/>
-    <mergeCell ref="O104:O105"/>
-    <mergeCell ref="P104:P105"/>
-    <mergeCell ref="B103:H103"/>
-    <mergeCell ref="C98:D98"/>
-    <mergeCell ref="B104:B105"/>
+    <mergeCell ref="C82:D82"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="H104:J104"/>
+    <mergeCell ref="C84:D84"/>
+    <mergeCell ref="G82:I82"/>
+    <mergeCell ref="G83:I83"/>
+    <mergeCell ref="G84:I84"/>
+    <mergeCell ref="C79:G79"/>
+    <mergeCell ref="C83:D83"/>
+    <mergeCell ref="B85:H85"/>
+    <mergeCell ref="B7:H7"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="B3:H4"/>
+    <mergeCell ref="B56:B57"/>
+    <mergeCell ref="C56:E56"/>
+    <mergeCell ref="F56:F57"/>
+    <mergeCell ref="G56:G57"/>
+    <mergeCell ref="H56:J56"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="C30:E30"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="H30:J30"/>
+    <mergeCell ref="G30:G31"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="B13:H13"/>
+    <mergeCell ref="O56:O57"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="L30:L31"/>
+    <mergeCell ref="M30:M31"/>
+    <mergeCell ref="N30:N31"/>
+    <mergeCell ref="O30:O31"/>
+    <mergeCell ref="K30:K31"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="M86:M87"/>
+    <mergeCell ref="K86:K87"/>
+    <mergeCell ref="L86:L87"/>
+    <mergeCell ref="N104:N105"/>
+    <mergeCell ref="N86:N87"/>
+    <mergeCell ref="H88:N88"/>
+    <mergeCell ref="C95:G95"/>
+    <mergeCell ref="C99:D99"/>
+    <mergeCell ref="B86:B87"/>
+    <mergeCell ref="C86:E86"/>
+    <mergeCell ref="F86:F87"/>
+    <mergeCell ref="G86:G87"/>
+    <mergeCell ref="H86:J86"/>
+    <mergeCell ref="K56:K57"/>
+    <mergeCell ref="L56:L57"/>
+    <mergeCell ref="L82:M82"/>
+    <mergeCell ref="C49:G49"/>
+    <mergeCell ref="H32:N32"/>
+    <mergeCell ref="B26:P27"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="M56:M57"/>
+    <mergeCell ref="N56:N57"/>
+    <mergeCell ref="C53:D53"/>
+    <mergeCell ref="C54:D54"/>
+    <mergeCell ref="H58:N58"/>
+    <mergeCell ref="B29:H29"/>
+    <mergeCell ref="B55:H55"/>
+    <mergeCell ref="P56:P57"/>
+    <mergeCell ref="P30:P31"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:C15"/>
     <mergeCell ref="G119:I119"/>
     <mergeCell ref="C100:D100"/>
     <mergeCell ref="C118:D118"/>
@@ -48906,79 +48973,13 @@
     <mergeCell ref="F104:F105"/>
     <mergeCell ref="G104:G105"/>
     <mergeCell ref="C117:D117"/>
-    <mergeCell ref="L82:M82"/>
-    <mergeCell ref="C49:G49"/>
-    <mergeCell ref="H32:N32"/>
-    <mergeCell ref="B26:P27"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="M56:M57"/>
-    <mergeCell ref="N56:N57"/>
-    <mergeCell ref="C53:D53"/>
-    <mergeCell ref="C54:D54"/>
-    <mergeCell ref="H58:N58"/>
-    <mergeCell ref="B29:H29"/>
-    <mergeCell ref="B55:H55"/>
-    <mergeCell ref="P56:P57"/>
-    <mergeCell ref="P30:P31"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="M86:M87"/>
-    <mergeCell ref="K86:K87"/>
-    <mergeCell ref="L86:L87"/>
-    <mergeCell ref="N104:N105"/>
-    <mergeCell ref="N86:N87"/>
-    <mergeCell ref="H88:N88"/>
-    <mergeCell ref="C95:G95"/>
-    <mergeCell ref="C99:D99"/>
-    <mergeCell ref="B86:B87"/>
-    <mergeCell ref="C86:E86"/>
-    <mergeCell ref="F86:F87"/>
-    <mergeCell ref="G86:G87"/>
-    <mergeCell ref="H86:J86"/>
-    <mergeCell ref="K56:K57"/>
-    <mergeCell ref="L56:L57"/>
-    <mergeCell ref="O56:O57"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="L30:L31"/>
-    <mergeCell ref="M30:M31"/>
-    <mergeCell ref="N30:N31"/>
-    <mergeCell ref="O30:O31"/>
-    <mergeCell ref="K30:K31"/>
-    <mergeCell ref="B3:H4"/>
-    <mergeCell ref="B56:B57"/>
-    <mergeCell ref="C56:E56"/>
-    <mergeCell ref="F56:F57"/>
-    <mergeCell ref="G56:G57"/>
-    <mergeCell ref="H56:J56"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="C30:E30"/>
-    <mergeCell ref="F30:F31"/>
-    <mergeCell ref="H30:J30"/>
-    <mergeCell ref="G30:G31"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="H16:H17"/>
-    <mergeCell ref="B13:H13"/>
-    <mergeCell ref="B7:H7"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C82:D82"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="H104:J104"/>
-    <mergeCell ref="C84:D84"/>
-    <mergeCell ref="G82:I82"/>
-    <mergeCell ref="G83:I83"/>
-    <mergeCell ref="G84:I84"/>
-    <mergeCell ref="C79:G79"/>
-    <mergeCell ref="C83:D83"/>
-    <mergeCell ref="B85:H85"/>
+    <mergeCell ref="O86:O87"/>
+    <mergeCell ref="P86:P87"/>
+    <mergeCell ref="O104:O105"/>
+    <mergeCell ref="P104:P105"/>
+    <mergeCell ref="B103:H103"/>
+    <mergeCell ref="C98:D98"/>
+    <mergeCell ref="B104:B105"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
